--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agonzalez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agonzalezg\Documents\Adriana González\Micrositio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D41F88-FF24-024C-BE14-0BB6A006B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="500" windowWidth="26020" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" r:id="rId1"/>
@@ -18,131 +17,141 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de actividades'!$A$1:$I$128</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="320">
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Punto Naranja Santa Catarina</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2023/06/05/punto-naranja-santa-catarina/</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
   <si>
     <t>Categoría</t>
   </si>
   <si>
-    <t>Actividad</t>
+    <t>Especificación</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Ruta</t>
+  </si>
+  <si>
+    <t>Ambiental</t>
+  </si>
+  <si>
+    <t>Corporativa</t>
   </si>
   <si>
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Especificación</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Ruta</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Punto Naranja Santa Catarina</t>
-  </si>
-  <si>
     <t>EL paseo Santa Catarina</t>
   </si>
   <si>
-    <t>Junio</t>
+    <t>Inauguración de ´´ESPAZIOS IEMUJERES y PUNTO NARANJA´´</t>
+  </si>
+  <si>
+    <t>Urban Village Garza Sada</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2023/03/15/espazios-iemujeres-y-punto-naranja/</t>
+  </si>
+  <si>
+    <t>Donativo Instituto Estatal de las Mujeres</t>
+  </si>
+  <si>
+    <t>Mall Plaza Lincoln</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2023/03/09/donativo-instituto-estatal-de-las-mujeres-nl/</t>
+  </si>
+  <si>
+    <t>Encendido de Arbolitos 2022</t>
+  </si>
+  <si>
+    <t>Varias</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TaqlO8S56sE</t>
+  </si>
+  <si>
+    <t>Vídeo</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2023/01/12/encendido-de-arbolitos-2022/</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
   <si>
     <t>Imágenes</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2023/06/05/punto-naranja-santa-catarina/</t>
-  </si>
-  <si>
-    <t>Inauguración de ´´ESPAZIOS IEMUJERES y PUNTO NARANJA´´</t>
-  </si>
-  <si>
-    <t>Urban Village Garza Sada</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2023/03/15/espazios-iemujeres-y-punto-naranja/</t>
-  </si>
-  <si>
-    <t>Donativo Instituto Estatal de las Mujeres</t>
-  </si>
-  <si>
-    <t>Mall Plaza Lincoln</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2023/03/09/donativo-instituto-estatal-de-las-mujeres-nl/</t>
-  </si>
-  <si>
-    <t>Encendido de Arbolitos 2022</t>
-  </si>
-  <si>
-    <t>Varias</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Vídeo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TaqlO8S56sE</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2023/01/12/encendido-de-arbolitos-2022/</t>
+    <t>Corporativos</t>
   </si>
   <si>
     <t>Banco de Tapitas Enero-Julio 2022</t>
   </si>
   <si>
-    <t>Corporativos</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2022/08/19/banco-de-tapitas-ene-jul-2022/</t>
   </si>
   <si>
-    <t>Ambiental</t>
-  </si>
-  <si>
     <t>Máquinas de Reciclaje-AlEn</t>
   </si>
   <si>
     <t>https://planigrupo.com.mx/2022/08/19/alen-ene-jul-2022/</t>
   </si>
   <si>
-    <t>Corporativa</t>
-  </si>
-  <si>
     <t>Alianza Fundación Lilo</t>
   </si>
   <si>
@@ -173,18 +182,15 @@
     <t>Apoyo a Fundación ALIANZA ANTICÁNCER</t>
   </si>
   <si>
-    <t>Abril</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2022/04/26/alianza-anticancer/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2022/03/15/grupo-alen/</t>
+  </si>
+  <si>
     <t>Reciclar para ganar. Alianza con grupo AlEn</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2022/03/15/grupo-alen/</t>
-  </si>
-  <si>
     <t>Teletón Coahuila</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
     <t>Corazones Rosa en Colaboración con Grupo AlEn</t>
   </si>
   <si>
-    <t>Octubre</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2021/12/15/corazones-rosa/</t>
   </si>
   <si>
@@ -209,27 +212,21 @@
     <t>Banco de Tapitas Febrero 2022</t>
   </si>
   <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
     <t>https://youtu.be/qz5ar3doJyM</t>
   </si>
   <si>
     <t>https://planigrupo.com.mx/2021/11/24/banco-de-tapitas-noviembre-2021/</t>
   </si>
   <si>
+    <t>https://youtu.be/Hq5VfMan5No</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2021/09/03/donativo-en-el-dia-de-los-abuelos/</t>
+  </si>
+  <si>
     <t>Donativo en el Día de los Abuelos</t>
   </si>
   <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Hq5VfMan5No</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2021/09/03/donativo-en-el-dia-de-los-abuelos/</t>
-  </si>
-  <si>
     <t>Banco de Tapitas Julio 2021</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Lago Real</t>
   </si>
   <si>
-    <t>Mayo</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2021/05/27/donativo-mobiliario-a-casa-hogar-manos-de-amor-por-bahia/</t>
   </si>
   <si>
@@ -284,15 +278,15 @@
     <t>https://planigrupo.com.mx/2021/03/04/alianza-grupo-alen/</t>
   </si>
   <si>
+    <t>https://youtu.be/BHevoW9mdEY</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2021/03/04/alianza-banco-de-tapitas/</t>
+  </si>
+  <si>
     <t>Alianza Banco de Tapitas</t>
   </si>
   <si>
-    <t>https://youtu.be/BHevoW9mdEY</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2021/03/04/alianza-banco-de-tapitas/</t>
-  </si>
-  <si>
     <t>La Escuela Más Grande del Mundo</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Concurso de nacimientos navideños 2020</t>
   </si>
   <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
     <t>https://youtu.be/xp0aFAN4DHg</t>
   </si>
   <si>
@@ -371,21 +362,21 @@
     <t>https://planigrupo.com.mx/2019/12/13/encendido-de-pinos-2019/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/12/13/trotexsanta/</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ovt-dgMPOQ8</t>
+  </si>
+  <si>
     <t>Carrera Planigrupo-Santa Catarina</t>
   </si>
   <si>
-    <t>https://youtu.be/Ovt-dgMPOQ8</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/12/13/trotexsanta/</t>
+    <t>https://planigrupo.com.mx/2019/11/15/la-academia/</t>
   </si>
   <si>
     <t>Gran Casting La Academia</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/11/15/la-academia/</t>
-  </si>
-  <si>
     <t>Festival Cultural Tradición Viva</t>
   </si>
   <si>
@@ -431,18 +422,18 @@
     <t>https://planigrupo.com.mx/2019/10/21/empresa-compasiva-2/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/02/centro-de-acopio-5/</t>
+  </si>
+  <si>
     <t>Instalación de centro de acopio</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/02/centro-de-acopio-5/</t>
+    <t>Super Plaza las Haciendas</t>
   </si>
   <si>
     <t>Sustitución de luminarias</t>
   </si>
   <si>
-    <t>Super Plaza las Haciendas</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/02/sustitucion-de-luminarias-2/</t>
   </si>
   <si>
@@ -452,21 +443,21 @@
     <t>https://planigrupo.com.mx/2019/10/02/colecta-sismo/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/02/coleccion-de-viveres/</t>
+  </si>
+  <si>
+    <t>Paseo San Juan</t>
+  </si>
+  <si>
     <t>Recolección de víveres</t>
   </si>
   <si>
-    <t>Paseo San Juan</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/10/02/coleccion-de-viveres/</t>
+    <t>https://planigrupo.com.mx/2019/10/02/apoyo-a-caravanas-de-empleo/</t>
   </si>
   <si>
     <t>Apoyo a caravanas de empleo</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/02/apoyo-a-caravanas-de-empleo/</t>
-  </si>
-  <si>
     <t>Separación de residuos</t>
   </si>
   <si>
@@ -485,9 +476,6 @@
     <t>Difusión de campañas de vacunación</t>
   </si>
   <si>
-    <t>Febrero</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/02/campana-de-vacunacion/</t>
   </si>
   <si>
@@ -518,12 +506,12 @@
     <t>https://planigrupo.com.mx/2019/10/02/cambio-de-luminarias-5/</t>
   </si>
   <si>
+    <t>Macroplaza Oaxaca</t>
+  </si>
+  <si>
     <t>Colecta y apoyo para damnificados</t>
   </si>
   <si>
-    <t>Macroplaza Oaxaca</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/01/colecta-y-apoyo-para-damnificados/</t>
   </si>
   <si>
@@ -551,12 +539,12 @@
     <t>https://planigrupo.com.mx/2019/10/01/cambio-de-luminarias-4/</t>
   </si>
   <si>
+    <t>Macroplaza Estadio</t>
+  </si>
+  <si>
     <t>Reciclaje y recolección</t>
   </si>
   <si>
-    <t>Macroplaza Estadio</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/01/reciclaje-y-recoleccion/</t>
   </si>
   <si>
@@ -587,12 +575,12 @@
     <t>https://planigrupo.com.mx/2019/10/01/cambio-de-luminarias-2/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/01/1er-carrera-unidos/</t>
+  </si>
+  <si>
     <t>1er carrera unidos</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/01/1er-carrera-unidos/</t>
-  </si>
-  <si>
     <t>Apoyo a artesanos locales</t>
   </si>
   <si>
@@ -605,18 +593,18 @@
     <t>https://planigrupo.com.mx/2019/10/01/apoyo-a-la-unicef/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/01/centro-de-acopio-3/</t>
+  </si>
+  <si>
     <t>Centro de acopio Ciudadela UV</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/01/centro-de-acopio-3/</t>
+    <t>Plaza Universidad</t>
   </si>
   <si>
     <t>Centro de acopio_Plaza Universidad</t>
   </si>
   <si>
-    <t>Plaza Universidad</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/01/centro-de-acopio-2/</t>
   </si>
   <si>
@@ -647,30 +635,30 @@
     <t>Instalación de solatubes y mingitorios de gravedad</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/01/solatubes-y-mingitorios/</t>
+  </si>
+  <si>
     <t>Paseo Solidaridad</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/01/solatubes-y-mingitorios/</t>
+    <t>https://planigrupo.com.mx/2019/10/01/centro-de-acopio/</t>
   </si>
   <si>
     <t>Centro de acopio Paseo Solidaridad</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/10/01/centro-de-acopio/</t>
-  </si>
-  <si>
     <t>Cursos de primeros auxilios</t>
   </si>
   <si>
     <t>https://planigrupo.com.mx/2019/10/01/cursos-cruz-roja-mexicana/</t>
   </si>
   <si>
+    <t>Cancún Gran Plaza</t>
+  </si>
+  <si>
     <t>Campañas Cruz Roja Mexicana</t>
   </si>
   <si>
-    <t>Cancún Gran Plaza</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/01/campana-cruz-roja/</t>
   </si>
   <si>
@@ -689,36 +677,36 @@
     <t>Separación de basura y cartón</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/10/01/luminaria-ahorrativa/</t>
+  </si>
+  <si>
+    <t>Cambio de luminarias Cancún Gran Plaza</t>
+  </si>
+  <si>
     <t>https://planigrupo.com.mx/2019/10/01/separacion-basura-y-carton/</t>
   </si>
   <si>
-    <t>Cambio de luminarias Cancún Gran Plaza</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/10/01/luminaria-ahorrativa/</t>
-  </si>
-  <si>
     <t>Intalacion de equipos ahorradores de agua y papel</t>
   </si>
   <si>
     <t>https://planigrupo.com.mx/2019/10/01/ahorro-de-agua-y-papel/</t>
   </si>
   <si>
+    <t xml:space="preserve">Monterrey Corporativo </t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2019/10/01/empresa-compasiva/</t>
+  </si>
+  <si>
     <t>Empresa compasiva</t>
   </si>
   <si>
-    <t xml:space="preserve">Monterrey Corporativo </t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/10/01/empresa-compasiva/</t>
+    <t>Plaza Monumental</t>
   </si>
   <si>
     <t>Cambio de luminaria a LED Plaza Monumental</t>
   </si>
   <si>
-    <t>Plaza Monumental</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/10/01/luminarias-led/</t>
   </si>
   <si>
@@ -752,12 +740,12 @@
     <t>https://planigrupo.com.mx/2019/10/01/dia-del-nino/</t>
   </si>
   <si>
+    <t>Plaza Bella Mexiquense</t>
+  </si>
+  <si>
     <t>Cambio a lámparas LED y Programa de recolección de cartón</t>
   </si>
   <si>
-    <t>Plaza Bella Mexiquense</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/09/30/cambio-a-lamparas-led-y-programa-recoleccion-de-carton/</t>
   </si>
   <si>
@@ -779,12 +767,12 @@
     <t>https://planigrupo.com.mx/2019/09/30/rezago-educativo/</t>
   </si>
   <si>
+    <t>Macro Plaza Insurgentes</t>
+  </si>
+  <si>
     <t>Cambio de luminarias y programa de reciclaje</t>
   </si>
   <si>
-    <t>Macro Plaza Insurgentes</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/09/30/luminarias-y-reciclaje/</t>
   </si>
   <si>
@@ -806,12 +794,12 @@
     <t>https://planigrupo.com.mx/2019/09/30/autismo-y-hepatitis/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/09/30/cancer-de-mama/</t>
+  </si>
+  <si>
     <t>Programa contra Cáncer de mama</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/09/30/cancer-de-mama/</t>
-  </si>
-  <si>
     <t>Programa Expo Carrera</t>
   </si>
   <si>
@@ -863,12 +851,12 @@
     <t>https://planigrupo.com.mx/2019/09/30/orquesta-militar-y-orquesta-centinela/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/09/30/carrera-ciclista-mexicali-rumorosa/</t>
+  </si>
+  <si>
     <t>Carrera Ciclista Mexicali-Rumorosa</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/09/30/carrera-ciclista-mexicali-rumorosa/</t>
-  </si>
-  <si>
     <t>Campañas de salud y apoyo al DIF</t>
   </si>
   <si>
@@ -893,18 +881,18 @@
     <t>https://planigrupo.com.mx/2019/09/30/dibujando-mil-sonrisas/</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/09/27/panales-adultos-mayores/</t>
+  </si>
+  <si>
     <t>Obsequio de pañales para adultos mayores</t>
   </si>
   <si>
+    <t>Entrega de útiles escolares y campamentos de verano</t>
+  </si>
+  <si>
     <t>Centro comercial López Mateos</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/09/27/panales-adultos-mayores/</t>
-  </si>
-  <si>
-    <t>Entrega de útiles escolares y campamentos de verano</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/09/27/utiles-y-verano/</t>
   </si>
   <si>
@@ -935,45 +923,45 @@
     <t>La Nogalera</t>
   </si>
   <si>
+    <t>https://planigrupo.com.mx/2019/09/19/growing-our-community/</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f2B5az_O3UQ</t>
   </si>
   <si>
-    <t>https://planigrupo.com.mx/2019/09/19/growing-our-community/</t>
+    <t>https://youtu.be/W3YC9GBO4BY</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2019/09/19/clothes-and-toys-donations/</t>
   </si>
   <si>
     <t>Donaciones de ropa y juguetes</t>
   </si>
   <si>
-    <t>https://youtu.be/W3YC9GBO4BY</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/09/19/clothes-and-toys-donations/</t>
+    <t>El Paseo Santa Catarina</t>
   </si>
   <si>
     <t>Aqui tu servilleta, ayuda de corazón</t>
   </si>
   <si>
-    <t>El Paseo Santa Catarina</t>
-  </si>
-  <si>
     <t>https://youtu.be/bOox0nHClcQ</t>
   </si>
   <si>
     <t>https://planigrupo.com.mx/2019/09/19/here-your-server-help-from-the-heart/</t>
   </si>
   <si>
+    <t>https://youtu.be/5JUNh-3kPhU</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/2019/09/19/lose-weight-while-dancing/</t>
+  </si>
+  <si>
     <t>Manda tus kilos a volar</t>
   </si>
   <si>
     <t>Plaza Real Saltillo</t>
   </si>
   <si>
-    <t>https://youtu.be/5JUNh-3kPhU</t>
-  </si>
-  <si>
-    <t>https://planigrupo.com.mx/2019/09/19/lose-weight-while-dancing/</t>
-  </si>
-  <si>
     <t>UNHCR Reconocimiento 2019</t>
   </si>
   <si>
@@ -999,15 +987,12 @@
   </si>
   <si>
     <t>https://planigrupo.com.mx/2019/09/12/recoleccion-de-electrodomestico/</t>
-  </si>
-  <si>
-    <t>Origen Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1075,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1088,6 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1096,6 +1082,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,1251 +1366,1227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="24.5" customWidth="1"/>
+    <col min="2" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="93.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="4">
         <v>2023</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>2023</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4">
         <v>2023</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>2023</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>2022</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
         <v>2022</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
         <v>2022</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>10</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>2022</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <v>2022</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>2022</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4">
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4">
         <v>2022</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4">
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4">
         <v>2022</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="4">
         <v>2022</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
         <v>2021</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4">
         <v>2021</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4">
         <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4">
         <v>2021</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4">
         <v>2021</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4">
         <v>2021</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4">
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F20" s="4">
         <v>2021</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H20" s="4">
         <v>8</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
+      <c r="I20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F21" s="4">
         <v>2021</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4">
         <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4">
         <v>2021</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H22" s="4">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4">
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F23" s="4">
         <v>2021</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4">
         <v>2021</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="4">
         <v>2021</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4">
         <v>2021</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4">
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F27" s="4">
         <v>2020</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4">
         <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4">
         <v>2020</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="I28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4">
         <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F29" s="4">
         <v>2020</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4">
         <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4">
         <v>2020</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D31" s="4">
         <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="4">
         <v>2020</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="I31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4">
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
         <v>2020</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>26</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F33" s="4">
         <v>2020</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
+      <c r="I33" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4">
         <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4">
         <v>2020</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
+      <c r="I34" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4">
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F35" s="4">
         <v>2019</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="I35" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4">
         <v>15</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F36" s="4">
         <v>2019</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H36" s="4">
         <v>5</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="4">
         <v>15</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F37" s="4">
         <v>2019</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="I37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4">
         <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F38" s="4">
         <v>2019</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="I38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="4">
         <v>15</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F39" s="4">
         <v>2019</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="I39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4">
         <v>23</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F40" s="4">
         <v>2019</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H40" s="4">
         <v>2</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4">
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F41" s="4">
         <v>2019</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H41" s="4">
         <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D42" s="4">
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F42" s="4">
         <v>2019</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H42" s="4">
         <v>2</v>
@@ -2632,12 +2595,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>133</v>
@@ -2646,27 +2609,27 @@
         <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F43" s="4">
         <v>2019</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H43" s="4">
         <v>4</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>133</v>
@@ -2675,71 +2638,71 @@
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F44" s="4">
         <v>2019</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F45" s="4">
         <v>2019</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H45" s="4">
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D46" s="4">
         <v>30</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F46" s="4">
         <v>2019</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -2748,114 +2711,114 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F47" s="4">
         <v>2019</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F48" s="4">
         <v>2019</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H48" s="4">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>30</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F49" s="4">
         <v>2019</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H49" s="4">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D50" s="4">
         <v>23</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F50" s="4">
         <v>2019</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H50" s="4">
         <v>1</v>
@@ -2864,27 +2827,27 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>7</v>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D51" s="4">
         <v>30</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F51" s="4">
         <v>2017</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
@@ -2893,9 +2856,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>30</v>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>152</v>
@@ -2907,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F52" s="4">
         <v>2019</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H52" s="4">
         <v>1</v>
@@ -2922,9 +2885,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>7</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>155</v>
@@ -2936,13 +2899,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F53" s="4">
         <v>2018</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H53" s="4">
         <v>1</v>
@@ -2951,9 +2914,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>157</v>
@@ -2965,13 +2928,13 @@
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F54" s="4">
         <v>2019</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H54" s="4">
         <v>9</v>
@@ -2980,27 +2943,27 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F55" s="4">
         <v>2018</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
@@ -3009,27 +2972,27 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>30</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F56" s="4">
         <v>2019</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H56" s="4">
         <v>1</v>
@@ -3038,27 +3001,27 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F57" s="4">
         <v>2019</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H57" s="4">
         <v>1</v>
@@ -3067,27 +3030,27 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>30</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F58" s="4">
         <v>2019</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H58" s="4">
         <v>1</v>
@@ -3096,27 +3059,27 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>30</v>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F59" s="4">
         <v>2019</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H59" s="4">
         <v>2</v>
@@ -3125,27 +3088,27 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F60" s="4">
         <v>2019</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
@@ -3154,27 +3117,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>30</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F61" s="4">
         <v>2017</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H61" s="4">
         <v>6</v>
@@ -3183,27 +3146,27 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F62" s="4">
         <v>2014</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -3212,27 +3175,27 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>7</v>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D63" s="4">
         <v>31</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F63" s="4">
         <v>2018</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
@@ -3241,27 +3204,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>30</v>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F64" s="4">
         <v>2015</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H64" s="4">
         <v>3</v>
@@ -3270,27 +3233,27 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>30</v>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F65" s="4">
         <v>2019</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
@@ -3299,27 +3262,27 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>30</v>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F66" s="4">
         <v>2019</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H66" s="4">
         <v>10</v>
@@ -3328,172 +3291,172 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>7</v>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D67" s="4">
         <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F67" s="4">
         <v>2018</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H67" s="4">
         <v>4</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F68" s="4">
         <v>2019</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H68" s="4">
         <v>1</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>7</v>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D69" s="4">
         <v>6</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" s="4">
         <v>2018</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H69" s="4">
         <v>3</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D70" s="4">
         <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F70" s="4">
         <v>2017</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H70" s="4">
         <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>7</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F71" s="4">
         <v>2017</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H71" s="4">
         <v>2</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="4">
         <v>20</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F72" s="4">
         <v>2019</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H72" s="4">
         <v>3</v>
@@ -3502,27 +3465,27 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>30</v>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D73" s="4">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F73" s="4">
         <v>2019</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H73" s="4">
         <v>3</v>
@@ -3531,27 +3494,27 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>30</v>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F74" s="4">
         <v>2019</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H74" s="4">
         <v>8</v>
@@ -3560,27 +3523,27 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>30</v>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F75" s="4">
         <v>2019</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H75" s="4">
         <v>3</v>
@@ -3589,85 +3552,85 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>30</v>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F76" s="4">
         <v>2019</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H76" s="4">
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D77" s="4">
         <v>20</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F77" s="4">
         <v>2017</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H77" s="4">
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F78" s="4">
         <v>2019</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H78" s="4">
         <v>3</v>
@@ -3676,27 +3639,27 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>7</v>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F79" s="4">
         <v>2019</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H79" s="4">
         <v>6</v>
@@ -3705,27 +3668,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>30</v>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F80" s="4">
         <v>2019</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H80" s="4">
         <v>2</v>
@@ -3734,172 +3697,172 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>30</v>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F81" s="4">
         <v>2019</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H81" s="4">
         <v>3</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>30</v>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F82" s="4">
         <v>2019</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H82" s="4">
         <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>30</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F83" s="4">
         <v>2019</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H83" s="4">
         <v>5</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F84" s="4">
         <v>2019</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H84" s="4">
         <v>6</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>7</v>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F85" s="4">
         <v>2019</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H85" s="4">
         <v>2</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>30</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F86" s="4">
         <v>2019</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H86" s="4">
         <v>2</v>
@@ -3908,27 +3871,27 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>7</v>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F87" s="4">
         <v>2019</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H87" s="4">
         <v>4</v>
@@ -3937,201 +3900,201 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F88" s="4">
         <v>2019</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H88" s="4">
         <v>4</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>7</v>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F89" s="4">
         <v>2019</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H89" s="4">
         <v>9</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>7</v>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F90" s="4">
         <v>2019</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H90" s="4">
         <v>9</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>7</v>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F91" s="4">
         <v>2019</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H91" s="4">
         <v>4</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>30</v>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D92" s="4">
         <v>30</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F92" s="4">
         <v>2019</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H92" s="4">
         <v>5</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>30</v>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D93" s="4">
         <v>30</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F93" s="4">
         <v>2019</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H93" s="4">
         <v>5</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>30</v>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" s="4">
         <v>30</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F94" s="4">
         <v>2019</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H94" s="4">
         <v>1</v>
@@ -4140,27 +4103,27 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>7</v>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D95" s="4">
         <v>30</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F95" s="4">
         <v>2019</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H95" s="4">
         <v>7</v>
@@ -4169,27 +4132,27 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>7</v>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="4">
         <v>30</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F96" s="4">
         <v>2019</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H96" s="4">
         <v>1</v>
@@ -4198,27 +4161,27 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>7</v>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D97" s="4">
         <v>30</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F97" s="4">
         <v>2019</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H97" s="4">
         <v>5</v>
@@ -4227,27 +4190,27 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>30</v>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D98" s="4">
         <v>30</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F98" s="4">
         <v>2019</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H98" s="4">
         <v>8</v>
@@ -4256,27 +4219,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>7</v>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="4">
         <v>30</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F99" s="4">
         <v>2019</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H99" s="4">
         <v>2</v>
@@ -4285,27 +4248,27 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>7</v>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D100" s="4">
         <v>29</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F100" s="4">
         <v>2019</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H100" s="4">
         <v>4</v>
@@ -4314,56 +4277,56 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>7</v>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D101" s="4">
         <v>30</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F101" s="4">
         <v>2018</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H101" s="4">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>7</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D102" s="4">
         <v>20</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F102" s="4">
         <v>2018</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H102" s="4">
         <v>2</v>
@@ -4372,27 +4335,27 @@
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>7</v>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D103" s="4">
         <v>10</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F103" s="4">
         <v>2019</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H103" s="4">
         <v>5</v>
@@ -4401,27 +4364,27 @@
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>7</v>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D104" s="4">
         <v>30</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F104" s="4">
         <v>2019</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H104" s="4">
         <v>3</v>
@@ -4430,131 +4393,131 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>7</v>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D105" s="4">
         <v>30</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F105" s="4">
         <v>2019</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H105" s="4">
         <v>3</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>7</v>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D106" s="4">
         <v>10</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F106" s="4">
         <v>2019</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H106" s="4">
         <v>11</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>30</v>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D107" s="4">
         <v>30</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F107" s="4">
         <v>2019</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H107" s="4">
         <v>4</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>7</v>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D108" s="4">
         <v>18</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F108" s="4">
         <v>2019</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H108" s="4">
         <v>3</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>7</v>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D109" s="4">
         <v>9</v>
@@ -4566,239 +4529,239 @@
         <v>2019</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H109" s="4">
         <v>6</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>7</v>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D110" s="4">
         <v>28</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F110" s="4">
         <v>2019</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H110" s="4">
         <v>2</v>
       </c>
-      <c r="I110" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>7</v>
+      <c r="I110" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D111" s="4">
         <v>2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F111" s="4">
         <v>2019</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H111" s="4">
         <v>3</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F112" s="4">
         <v>2019</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H112" s="4">
         <v>7</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>7</v>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D113" s="4">
         <v>30</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F113" s="4">
         <v>2019</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H113" s="4">
         <v>3</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I113" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>7</v>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D114" s="4">
         <v>30</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F114" s="4">
         <v>2019</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H114" s="4">
         <v>4</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I114" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>7</v>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D115" s="4">
         <v>30</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F115" s="4">
         <v>2019</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H115" s="4">
         <v>2</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D116" s="4">
         <v>27</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F116" s="4">
         <v>2019</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H116" s="4">
         <v>4</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>30</v>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D117" s="4">
         <v>27</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F117" s="4">
         <v>2019</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H117" s="4">
         <v>5</v>
@@ -4807,27 +4770,27 @@
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D118" s="4">
         <v>27</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F118" s="4">
         <v>2019</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H118" s="4">
         <v>2</v>
@@ -4836,27 +4799,27 @@
         <v>291</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>7</v>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D119" s="4">
         <v>27</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F119" s="4">
         <v>2019</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H119" s="4">
         <v>3</v>
@@ -4865,27 +4828,27 @@
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>7</v>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D120" s="4">
         <v>27</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F120" s="4">
         <v>2019</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H120" s="4">
         <v>2</v>
@@ -4894,11 +4857,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -4908,28 +4871,27 @@
         <v>19</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F121" s="4">
         <v>2019</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H121" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="I121" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J121" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>300</v>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>297</v>
@@ -4938,85 +4900,82 @@
         <v>19</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F122" s="4">
         <v>2019</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="I122" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J122" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" s="2" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D123" s="4">
         <v>19</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F123" s="4">
         <v>2019</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="I123" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J123" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>307</v>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D124" s="4">
         <v>19</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F124" s="4">
         <v>2019</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H124" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="I124" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>7</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>311</v>
@@ -5028,13 +4987,13 @@
         <v>13</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F125" s="4">
         <v>2019</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H125" s="4">
         <v>4</v>
@@ -5043,27 +5002,27 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>7</v>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D126" s="4">
         <v>13</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F126" s="4">
         <v>2019</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H126" s="4">
         <v>2</v>
@@ -5072,27 +5031,27 @@
         <v>315</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>7</v>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D127" s="4">
         <v>13</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F127" s="4">
         <v>2019</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H127" s="4">
         <v>2</v>
@@ -5101,27 +5060,27 @@
         <v>317</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>7</v>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D128" s="4">
         <v>12</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F128" s="4">
         <v>2019</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H128" s="4">
         <v>4</v>
@@ -5131,323 +5090,69 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:I128">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A128 E2:E128" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I35" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I68" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I69" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I71" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I81" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I84" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I88" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I89" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I90" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I91" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I92" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I93" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I105" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I106" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I107" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I109" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I114" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J17" r:id="rId22" xr:uid="{7049E2FB-7124-8947-99EA-62E327A6F8F7}"/>
-    <hyperlink ref="J28" r:id="rId23" xr:uid="{89A84DBB-4EFA-7D4F-8149-0B1BB2B2FF36}"/>
-    <hyperlink ref="J32" r:id="rId24" xr:uid="{21815324-5B83-664D-82FB-500DF049FC55}"/>
-    <hyperlink ref="J33" r:id="rId25" xr:uid="{41994639-ED20-6C4E-889D-B5776C3A57A7}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{9EC7F1CE-FC4F-BA43-820F-48637828B558}"/>
-    <hyperlink ref="J35" r:id="rId27" xr:uid="{4A1F6E58-C80C-3D4F-96F8-233C5C237823}"/>
-    <hyperlink ref="J37" r:id="rId28" xr:uid="{9D263E5C-CFBD-E647-9954-CEA3CA63F36E}"/>
-    <hyperlink ref="J38" r:id="rId29" xr:uid="{733146CD-FB63-5E42-819A-4AB6AB0770E6}"/>
-    <hyperlink ref="J39" r:id="rId30" xr:uid="{255C35E1-80E7-D242-8A57-F8BF98BC8525}"/>
-    <hyperlink ref="J122" r:id="rId31" xr:uid="{B8D575E8-C57D-9D48-92A4-559751FFCC10}"/>
-    <hyperlink ref="J123" r:id="rId32" xr:uid="{1AA23E48-3751-2846-9EC0-DD0420F88362}"/>
-    <hyperlink ref="J124" r:id="rId33" xr:uid="{B672D6BC-850C-114D-9230-EC762BCDEBDB}"/>
-    <hyperlink ref="J30" r:id="rId34" xr:uid="{95D466FB-8E8F-574B-B71E-5CAADE4DC829}"/>
-    <hyperlink ref="J31" r:id="rId35" xr:uid="{45CEAF78-0D9E-DB4E-A6B0-E02A464215EF}"/>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H28" r:id="rId2"/>
+    <hyperlink ref="H30" r:id="rId3"/>
+    <hyperlink ref="H31" r:id="rId4"/>
+    <hyperlink ref="H32" r:id="rId5"/>
+    <hyperlink ref="H33" r:id="rId6"/>
+    <hyperlink ref="I33" r:id="rId7"/>
+    <hyperlink ref="H34" r:id="rId8"/>
+    <hyperlink ref="I34" r:id="rId9"/>
+    <hyperlink ref="I35" r:id="rId10"/>
+    <hyperlink ref="H35" r:id="rId11"/>
+    <hyperlink ref="I36" r:id="rId12"/>
+    <hyperlink ref="H37" r:id="rId13"/>
+    <hyperlink ref="H38" r:id="rId14"/>
+    <hyperlink ref="H39" r:id="rId15"/>
+    <hyperlink ref="I68" r:id="rId16"/>
+    <hyperlink ref="I69" r:id="rId17"/>
+    <hyperlink ref="I71" r:id="rId18"/>
+    <hyperlink ref="I81" r:id="rId19"/>
+    <hyperlink ref="I84" r:id="rId20"/>
+    <hyperlink ref="I88" r:id="rId21"/>
+    <hyperlink ref="I89" r:id="rId22"/>
+    <hyperlink ref="I90" r:id="rId23"/>
+    <hyperlink ref="I91" r:id="rId24"/>
+    <hyperlink ref="I92" r:id="rId25"/>
+    <hyperlink ref="I93" r:id="rId26"/>
+    <hyperlink ref="I105" r:id="rId27"/>
+    <hyperlink ref="I106" r:id="rId28"/>
+    <hyperlink ref="I107" r:id="rId29"/>
+    <hyperlink ref="I109" r:id="rId30"/>
+    <hyperlink ref="I114" r:id="rId31"/>
+    <hyperlink ref="H122" r:id="rId32"/>
+    <hyperlink ref="H123" r:id="rId33"/>
+    <hyperlink ref="H124" r:id="rId34"/>
+    <hyperlink ref="I20" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A128</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E128</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a130587-e9f0-4d49-ad8d-d596321f6469">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006769791C4C8EF741B818578172CD54C5" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="191d36a3cd17e08ed75c6cc86c577239">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a130587-e9f0-4d49-ad8d-d596321f6469" xmlns:ns3="8f81d0c8-788e-4355-8cb9-85b48152c960" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e60196c58bea9919b629a5dc69e8952" ns2:_="" ns3:_="">
-    <xsd:import namespace="0a130587-e9f0-4d49-ad8d-d596321f6469"/>
-    <xsd:import namespace="8f81d0c8-788e-4355-8cb9-85b48152c960"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0a130587-e9f0-4d49-ad8d-d596321f6469" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5b14ec1e-6517-4b97-b478-0fe926af42e6" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8f81d0c8-788e-4355-8cb9-85b48152c960" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C95DDB-F225-4527-B8E6-E42EE30B06D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a130587-e9f0-4d49-ad8d-d596321f6469"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571E0CD6-A634-494E-9743-42CA58889383}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a130587-e9f0-4d49-ad8d-d596321f6469"/>
-    <ds:schemaRef ds:uri="8f81d0c8-788e-4355-8cb9-85b48152c960"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3EE113D-D992-4F4C-A875-AD27FC6EB5D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agonzalezg\Documents\Adriana González\Micrositio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\asg\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E91D5-7584-4B46-A407-C8A84C83BAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
+    <workbookView xWindow="10965" yWindow="0" windowWidth="17835" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="447">
   <si>
     <t>Actividad</t>
   </si>
@@ -987,12 +988,393 @@
   </si>
   <si>
     <t>https://planigrupo.com.mx/2019/09/12/recoleccion-de-electrodomestico/</t>
+  </si>
+  <si>
+    <t>Imagen Miniatura URL</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2023/06/IMG_8838-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2023/03/IMG_0519-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2023/03/sillas-1.png</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TaqlO8S56sE/sddefault.jpg?sqp=-oaymwEmCIAFEOAD8quKqQMa8AEB-AHUBoAC4AOKAgwIABABGGUgRyhGMA8=&amp;rs=AOn4CLBp2B8JARgIIyBtzwBFOXomYiIhyA</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/08/Tapitas-.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/08/Alen1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/08/Captura-de-pantalla-2022-08-01-092915.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/06/Ct.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/06/Alen.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/06/cj1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/04/Alianza2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/03/Alen.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2022/03/Teletn.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/12/Corazones-Rosas.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/12/Reciclaton-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/qz5ar3doJyM/sddefault.jpg?sqp=-oaymwEmCIAFEOAD8quKqQMa8AEB-AH-CYAC0AWKAgwIABABGGUgWyhJMA8=&amp;rs=AOn4CLBAjZjUBmAL5y0bxTIBXBC3bWuJ1A</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Hq5VfMan5No/maxresdefault.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AH-DoACuAiKAgwIABABGGUgWihMMA8=&amp;rs=AOn4CLAVptPTy7a-dk5wLv6e4-DGWTWnTg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/cYdS3rNrf7k/hqdefault.jpg?sqp=-oaymwEmCOADEOgC8quKqQMa8AEB-AHUBoAC4AOKAgwIABABGHIgYiguMA8=&amp;rs=AOn4CLAHBuA5CgUlMt61t1UQq9pVY3Mrgg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/05/Imagen6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1amRLbbwt2s/maxresdefault.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AH-DoACuAiKAgwIABABGGUgZShlMA8=&amp;rs=AOn4CLAreMsIOC3KwG90RsTtWz4e_LnJYA</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/05/calendario-mujeres_Mesa-de-trabajo-1-copia.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/04/Fundacion.png</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/bGWF2LyXcXQ/maxresdefault.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AHUBoAC4AOKAgwIABABGC4gZShEMA8=&amp;rs=AOn4CLDMgD53ykkx5JTs-gRpgzfA6cbnYg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/BHevoW9mdEY/maxresdefault.jpg?sqp=-oaymwEmCIAKENAF8quKqQMa8AEB-AHUBoAC4AOKAgwIABABGH8gLShDMA8=&amp;rs=AOn4CLA7VRQs6bq9TC27wBI_dnuHQ6_SKA</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2021/03/EMGDM_pg_Mesa-de-trabajo-1-copia-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/xp0aFAN4DHg/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/9dlZMHIL-HI/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2020/10/laptops-fundacion_Mesa-de-trabajo-1-copia-44-e1602192000500.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/kwR1o9YrCUU/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/G9eQfrnDUik/sddefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/L1JuNh6SVFI/hqdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/DZ2N1ltI0Dw/hqdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/QVHHq_h0m7w/hqdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/Ovt-dgMPOQ8/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/11/68796572_2179198465524579_4406348334994817024_o.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/sWwAFnKTi4k/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/SRriTz6qiTs/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/y-N8vtOwERA/sddefault.webp</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Vi-222.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/0.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen80.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen78.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen87.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen73.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen71.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen69.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen66.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen65.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen72.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen70.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen58.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen61.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen57.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen48.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen47.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen46.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen45.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen43.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen41.41.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen38.38.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen42.42.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen24-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen17-2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen15-2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen11-2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen27-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/30.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen19-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen23-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen18-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen12-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen3-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen5-2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen1-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen7-2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen4-1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen18.18.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen22.22.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen14.14.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen10.10.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen12.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen2.2.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/2.2.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen34.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen22.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen26.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen16.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen23.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen11.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen9.9-3.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen12.12-3.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen2.2-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen1.1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen44.44.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen40.40.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen36.36-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen34.34-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen33.33-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen31.31-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen26.26-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen18.18-2.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen15.15-2.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen3.3-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen37.37.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen32.32.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen26.26.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen21.21-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen15.15-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen11.11-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen8.8-1.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen3.3.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen19.19.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen13.13.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen27.27.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen17.17.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen11.11.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/Imagen6.6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/f2B5az_O3UQ/sddefault.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/W3YC9GBO4BY/sddefault.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi_webp/bOox0nHClcQ/maxresdefault.webp</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/5JUNh-3kPhU/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/UNHCR1.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/UnitedRace2.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/TimeforSmiles4.png</t>
+  </si>
+  <si>
+    <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/community-pg-foundation.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,7 +1400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1073,7 +1461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1082,7 +1469,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,22 +1753,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="78" customWidth="1"/>
+    <col min="10" max="10" width="96.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1391,11 +1780,11 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1405,8 +1794,11 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1431,12 +1823,15 @@
       <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1463,9 +1858,12 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="J3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1492,9 +1890,12 @@
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="J4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1521,9 +1922,12 @@
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="J5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1550,9 +1954,12 @@
       <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="J6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1579,9 +1986,12 @@
       <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="J7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1608,9 +2018,12 @@
       <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="J8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1637,9 +2050,12 @@
       <c r="I9" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="J9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1666,9 +2082,12 @@
       <c r="I10" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1695,9 +2114,12 @@
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="J11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1724,9 +2146,12 @@
       <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="J12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1753,9 +2178,12 @@
       <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1782,9 +2210,12 @@
       <c r="I14" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="J14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1811,9 +2242,12 @@
       <c r="I15" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="J15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1840,9 +2274,12 @@
       <c r="I16" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="J16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1863,15 +2300,18 @@
       <c r="G17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="J17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1898,9 +2338,12 @@
       <c r="I18" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="J18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1927,9 +2370,12 @@
       <c r="I19" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="J19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1953,12 +2399,15 @@
       <c r="H20" s="4">
         <v>8</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="J20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1985,9 +2434,12 @@
       <c r="I21" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="J21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2014,9 +2466,12 @@
       <c r="I22" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="J22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2043,9 +2498,12 @@
       <c r="I23" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="J23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2072,9 +2530,12 @@
       <c r="I24" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="J24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2101,9 +2562,12 @@
       <c r="I25" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="J25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2130,9 +2594,12 @@
       <c r="I26" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="J26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2159,9 +2626,12 @@
       <c r="I27" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="J27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2182,15 +2652,18 @@
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>92</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="J28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2217,9 +2690,12 @@
       <c r="I29" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="J29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2240,15 +2716,18 @@
       <c r="G30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>97</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="J30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2269,15 +2748,18 @@
       <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="J31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2298,15 +2780,18 @@
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="J32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2327,15 +2812,18 @@
       <c r="G33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="J33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2356,15 +2844,18 @@
       <c r="G34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="J34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2385,15 +2876,18 @@
       <c r="G35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="J35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2417,12 +2911,15 @@
       <c r="H36" s="4">
         <v>5</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="J36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2443,15 +2940,18 @@
       <c r="G37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>118</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="J37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2472,15 +2972,18 @@
       <c r="G38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="J38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2501,15 +3004,18 @@
       <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="J39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2536,9 +3042,12 @@
       <c r="I40" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2565,9 +3074,12 @@
       <c r="I41" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="J41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2594,9 +3106,12 @@
       <c r="I42" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2623,9 +3138,12 @@
       <c r="I43" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="J43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2652,9 +3170,12 @@
       <c r="I44" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2681,9 +3202,12 @@
       <c r="I45" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2710,9 +3234,12 @@
       <c r="I46" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2739,9 +3266,12 @@
       <c r="I47" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="J47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2768,9 +3298,12 @@
       <c r="I48" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2797,9 +3330,12 @@
       <c r="I49" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2826,9 +3362,12 @@
       <c r="I50" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2855,9 +3394,12 @@
       <c r="I51" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2884,9 +3426,12 @@
       <c r="I52" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="J52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2913,9 +3458,12 @@
       <c r="I53" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2942,9 +3490,12 @@
       <c r="I54" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2971,9 +3522,12 @@
       <c r="I55" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="J55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3000,9 +3554,12 @@
       <c r="I56" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="J56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3029,9 +3586,12 @@
       <c r="I57" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="J57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3058,9 +3618,12 @@
       <c r="I58" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="J58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3087,9 +3650,12 @@
       <c r="I59" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="J59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3116,9 +3682,12 @@
       <c r="I60" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="J60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3145,9 +3714,12 @@
       <c r="I61" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="J61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3174,9 +3746,12 @@
       <c r="I62" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="J62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3203,9 +3778,12 @@
       <c r="I63" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="J63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3232,9 +3810,12 @@
       <c r="I64" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3261,9 +3842,12 @@
       <c r="I65" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="J65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3290,9 +3874,12 @@
       <c r="I66" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="J66" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3319,9 +3906,12 @@
       <c r="I67" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="J67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3345,12 +3935,15 @@
       <c r="H68" s="4">
         <v>1</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="J68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3374,12 +3967,15 @@
       <c r="H69" s="4">
         <v>3</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="J69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3406,9 +4002,12 @@
       <c r="I70" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="J70" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3432,12 +4031,15 @@
       <c r="H71" s="4">
         <v>2</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="J71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3464,9 +4066,12 @@
       <c r="I72" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="J72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3493,9 +4098,12 @@
       <c r="I73" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="J73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3522,9 +4130,12 @@
       <c r="I74" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="J74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3551,9 +4162,12 @@
       <c r="I75" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="J75" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3580,9 +4194,12 @@
       <c r="I76" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="J76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3609,9 +4226,12 @@
       <c r="I77" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="J77" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3638,9 +4258,12 @@
       <c r="I78" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="J78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3667,9 +4290,12 @@
       <c r="I79" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="J79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3696,9 +4322,12 @@
       <c r="I80" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="J80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3722,12 +4351,15 @@
       <c r="H81" s="4">
         <v>3</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="J81" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3754,9 +4386,12 @@
       <c r="I82" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="J82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3783,9 +4418,12 @@
       <c r="I83" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="J83" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3809,12 +4447,15 @@
       <c r="H84" s="4">
         <v>6</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="J84" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3841,9 +4482,12 @@
       <c r="I85" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="J85" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3870,9 +4514,12 @@
       <c r="I86" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="J86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3899,9 +4546,12 @@
       <c r="I87" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="J87" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3925,12 +4575,15 @@
       <c r="H88" s="4">
         <v>4</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="J88" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3954,12 +4607,15 @@
       <c r="H89" s="4">
         <v>9</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="J89" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3983,12 +4639,15 @@
       <c r="H90" s="4">
         <v>9</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="J90" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4012,12 +4671,15 @@
       <c r="H91" s="4">
         <v>4</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="J91" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4041,12 +4703,15 @@
       <c r="H92" s="4">
         <v>5</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="J92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4070,12 +4735,15 @@
       <c r="H93" s="4">
         <v>5</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="J93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4102,9 +4770,12 @@
       <c r="I94" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="J94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4131,9 +4802,12 @@
       <c r="I95" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="J95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4160,9 +4834,12 @@
       <c r="I96" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="J96" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4189,9 +4866,12 @@
       <c r="I97" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="J97" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4218,9 +4898,12 @@
       <c r="I98" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="J98" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4247,9 +4930,12 @@
       <c r="I99" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="J99" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4276,9 +4962,12 @@
       <c r="I100" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="J100" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4305,9 +4994,12 @@
       <c r="I101" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="J101" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4334,9 +5026,12 @@
       <c r="I102" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="J102" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -4363,9 +5058,12 @@
       <c r="I103" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="J103" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -4392,9 +5090,12 @@
       <c r="I104" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="J104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -4418,12 +5119,15 @@
       <c r="H105" s="4">
         <v>3</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="J105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -4447,12 +5151,15 @@
       <c r="H106" s="4">
         <v>11</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="J106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -4476,12 +5183,15 @@
       <c r="H107" s="4">
         <v>4</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="J107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -4505,12 +5215,15 @@
       <c r="H108" s="4">
         <v>3</v>
       </c>
-      <c r="I108" s="9" t="s">
+      <c r="I108" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="J108" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -4534,12 +5247,15 @@
       <c r="H109" s="4">
         <v>6</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I109" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+      <c r="J109" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -4563,12 +5279,15 @@
       <c r="H110" s="4">
         <v>2</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I110" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="J110" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -4592,12 +5311,15 @@
       <c r="H111" s="4">
         <v>3</v>
       </c>
-      <c r="I111" s="9" t="s">
+      <c r="I111" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="J111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -4621,12 +5343,15 @@
       <c r="H112" s="4">
         <v>7</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="I112" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="J112" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -4650,12 +5375,15 @@
       <c r="H113" s="4">
         <v>3</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="J113" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -4679,12 +5407,15 @@
       <c r="H114" s="4">
         <v>4</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I114" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="J114" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -4708,12 +5439,15 @@
       <c r="H115" s="4">
         <v>2</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="J115" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -4737,12 +5471,15 @@
       <c r="H116" s="4">
         <v>4</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+      <c r="J116" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4769,9 +5506,12 @@
       <c r="I117" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+      <c r="J117" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -4798,9 +5538,12 @@
       <c r="I118" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="J118" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -4827,9 +5570,12 @@
       <c r="I119" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+      <c r="J119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4856,12 +5602,15 @@
       <c r="I120" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="11" t="s">
+      <c r="J120" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -4879,18 +5628,21 @@
       <c r="G121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="6" t="s">
         <v>299</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" s="11" t="s">
+      <c r="J121" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -4908,18 +5660,21 @@
       <c r="G122" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="9" t="s">
         <v>300</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="11" t="s">
+      <c r="J122" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -4937,18 +5692,21 @@
       <c r="G123" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="9" t="s">
         <v>305</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="11" t="s">
+      <c r="J123" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -4966,15 +5724,18 @@
       <c r="G124" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H124" s="10" t="s">
+      <c r="H124" s="9" t="s">
         <v>307</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="J124" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5001,9 +5762,12 @@
       <c r="I125" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+      <c r="J125" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5030,9 +5794,12 @@
       <c r="I126" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+      <c r="J126" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5059,9 +5826,12 @@
       <c r="I127" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="J127" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5088,71 +5858,62 @@
       <c r="I128" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="J128" t="s">
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I128">
+  <autoFilter ref="A1:I128" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A128 E2:E128" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1"/>
-    <hyperlink ref="H28" r:id="rId2"/>
-    <hyperlink ref="H30" r:id="rId3"/>
-    <hyperlink ref="H31" r:id="rId4"/>
-    <hyperlink ref="H32" r:id="rId5"/>
-    <hyperlink ref="H33" r:id="rId6"/>
-    <hyperlink ref="I33" r:id="rId7"/>
-    <hyperlink ref="H34" r:id="rId8"/>
-    <hyperlink ref="I34" r:id="rId9"/>
-    <hyperlink ref="I35" r:id="rId10"/>
-    <hyperlink ref="H35" r:id="rId11"/>
-    <hyperlink ref="I36" r:id="rId12"/>
-    <hyperlink ref="H37" r:id="rId13"/>
-    <hyperlink ref="H38" r:id="rId14"/>
-    <hyperlink ref="H39" r:id="rId15"/>
-    <hyperlink ref="I68" r:id="rId16"/>
-    <hyperlink ref="I69" r:id="rId17"/>
-    <hyperlink ref="I71" r:id="rId18"/>
-    <hyperlink ref="I81" r:id="rId19"/>
-    <hyperlink ref="I84" r:id="rId20"/>
-    <hyperlink ref="I88" r:id="rId21"/>
-    <hyperlink ref="I89" r:id="rId22"/>
-    <hyperlink ref="I90" r:id="rId23"/>
-    <hyperlink ref="I91" r:id="rId24"/>
-    <hyperlink ref="I92" r:id="rId25"/>
-    <hyperlink ref="I93" r:id="rId26"/>
-    <hyperlink ref="I105" r:id="rId27"/>
-    <hyperlink ref="I106" r:id="rId28"/>
-    <hyperlink ref="I107" r:id="rId29"/>
-    <hyperlink ref="I109" r:id="rId30"/>
-    <hyperlink ref="I114" r:id="rId31"/>
-    <hyperlink ref="H122" r:id="rId32"/>
-    <hyperlink ref="H123" r:id="rId33"/>
-    <hyperlink ref="H124" r:id="rId34"/>
-    <hyperlink ref="I20" r:id="rId35"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I33" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H35" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I68" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I69" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I71" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I81" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I84" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I88" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I90" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I91" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I92" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I105" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I106" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I107" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I109" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I114" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H122" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H123" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H124" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I2" r:id="rId36" xr:uid="{51207F75-BD35-441C-AE07-2E18F9A317BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A128</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E128</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\asg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E91D5-7584-4B46-A407-C8A84C83BAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056F498-37A1-49A2-BA80-FC51BF3A34AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="0" windowWidth="17835" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="448">
   <si>
     <t>Actividad</t>
   </si>
@@ -1369,6 +1369,9 @@
   </si>
   <si>
     <t>https://planigrupo.com.mx/wp-content/uploads/2019/09/community-pg-foundation.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
   </si>
 </sst>
 </file>
@@ -1754,11 +1757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,9 +1771,10 @@
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="78" customWidth="1"/>
     <col min="10" max="10" width="96.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1797,8 +1801,11 @@
       <c r="J1" s="10" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1965,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2061,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2093,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2157,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -5870,7 +5877,7 @@
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A128 E2:E128" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>

--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\asg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056F498-37A1-49A2-BA80-FC51BF3A34AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0451052-6624-D149-8911-498BB5C9D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="26220" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de actividades'!$A$1:$I$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de actividades'!$A$1:$I$127</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="574">
   <si>
     <t>Actividad</t>
   </si>
@@ -750,9 +750,6 @@
     <t>https://planigrupo.com.mx/2019/09/30/cambio-a-lamparas-led-y-programa-recoleccion-de-carton/</t>
   </si>
   <si>
-    <t>Centro de acopio de recilado electrónico</t>
-  </si>
-  <si>
     <t>https://planigrupo.com.mx/2019/09/30/reciclado-electronico/</t>
   </si>
   <si>
@@ -1372,13 +1369,394 @@
   </si>
   <si>
     <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
+    <t>Se inauguró ESPAZIOS IEMUJERES en nuestra plaza comercial Urban Village Garza Sada</t>
+  </si>
+  <si>
+    <t>Nuestro programa “MANOS AL CORAZÓN” brinda apoyo con gastos hospitalarios y dispositivos</t>
+  </si>
+  <si>
+    <t>Se contribuyo en la atención médica y rehabilitación de calidad para niñas y niños del CRIT Coahuila.</t>
+  </si>
+  <si>
+    <t>En este 2021 Planigrupo Operaciones fue el Patrocinador Oficial del Reciclatón Fundación Teletón de Coahuila y Monterrey. Haciendo un donativo en efectivo y recolectando reciclaje en puntos estratégicos de nuestras Plazas Comerciales. Este donativo fue para apoyar a todos los niños del CRIT COAHUILA. En Pet recolectamos más de 600 kilos</t>
+  </si>
+  <si>
+    <t>Más de 40 toneladas, 750 quimioterapias, 1,500 suplementos alimenticios y 500 pacientes atendidos.</t>
+  </si>
+  <si>
+    <t>Se realizo visita y apoyo a asilos de abuelos en 4 comunidades, Cd Juárez, Guadalajara, Monterrey y Saltillo</t>
+  </si>
+  <si>
+    <t>Se realizó un donativo de mobiliario para niños en situación de pobreza extrema, huérfanos, entre otros</t>
+  </si>
+  <si>
+    <t>Se realizó la conferencia de Liderazgo femenino con las invitadas Karla Ahumada y Paola Espinoza</t>
+  </si>
+  <si>
+    <t>Se dio inicio a las fiestas navideñas con el encendido de árboles navideños a nivel nacional</t>
+  </si>
+  <si>
+    <t>Se realizo la sanitización de centros comerciales para brindar mayor seguridad a los clientes</t>
+  </si>
+  <si>
+    <t>Agradecemos a las personas que colaboraron en la recolección de tapitas y a Banco Tapitas por su compromiso y labor</t>
+  </si>
+  <si>
+    <t>Se realizó el encendido del Pino Navideño en todas las Plazas Comerciales</t>
+  </si>
+  <si>
+    <t>Nos unimos a la causa de Apoyar a FER a que tenga una mejor calidad de vida debido a que necesita de manera urgente un trasplante de riñón.</t>
+  </si>
+  <si>
+    <t>Se tuvo el acercamiento con el Museo del Auto en Monterrey para llevar la exhibición de más de 200 autos clásicos en la plaza.</t>
+  </si>
+  <si>
+    <t>Se instalo iluminación LED en el interior y exterior de la plaza. 99 luminarias en total sustituidas.</t>
+  </si>
+  <si>
+    <t>Se llevo a cabo campaña para recolectar artículos de primera necesidad y ayudar a los damnificados del sismo del 2017.</t>
+  </si>
+  <si>
+    <t>Se colocaron 4 domos en el área de food court, los cuales permiten aprovechar la luz solar 7 horas todos los días y se cuentan con 9 tragaluces los cuales permiten aprovechar la luz solar.</t>
+  </si>
+  <si>
+    <t>Se implementaron luminarias tipo led, para apoyar al medio ambiente y disminuir el uso de energía eléctrica.</t>
+  </si>
+  <si>
+    <t>Se apoya a campañas de vacunación del instituto mexicano del seguro social de febrero a marzo del 2019.</t>
+  </si>
+  <si>
+    <t>Se creo un centro de acopio por el sismo de septiembre del 2017 en Chiapas y Oaxaca.</t>
+  </si>
+  <si>
+    <t>Se realiza la separación de cartón, para después recolectarlo y así ayudar a su reciclaje.</t>
+  </si>
+  <si>
+    <t>Se realiza la separación de residuos orgánicos, vidrio, cartón y plástico. Para ayudar al medio ambiente. Durante el año 2018 y lo que va del 2019</t>
+  </si>
+  <si>
+    <t>En el 2018 se apoyo en la recolección de víveres para los afectados de las inundaciones en Sinaloa, se tuvo un modulo para la recolección de artículos de primera necesidad</t>
+  </si>
+  <si>
+    <t>Con el apoyo de protección civil, se tiene la preservación de un árbol ficus y solo se poda con autorización de dichas dependencias ya que es un medio natural de producción de oxigeno.</t>
+  </si>
+  <si>
+    <t>Se instalaron mingitorios ecológicos, que disminuyen las descargas y no necesitan agua. No presentan malos olores.</t>
+  </si>
+  <si>
+    <t>Se instalaron sensores de luz, para tener un ahorro energético y reducir las emisiones de co2 en la plaza.</t>
+  </si>
+  <si>
+    <t>Se realizan recolecciones mensuales de cartón y reciclaje.</t>
+  </si>
+  <si>
+    <t>Centro de acopio de reciclado electrónico</t>
+  </si>
+  <si>
+    <t>Apoyo con víveres a damnificados en baja california en el 2014.</t>
+  </si>
+  <si>
+    <t>Se fue cede de la primer carrera unidos por la inclusión. Donde se reúnen personas de todas las edades, géneros y capacidades diferentes.</t>
+  </si>
+  <si>
+    <t>Se les brinda espació dentro del área común a pequeños productores de productos orgánicos.</t>
+  </si>
+  <si>
+    <t>En el mes de marzo 2018, se instala un centro de acopio, que pertenece al municipio de Cuautitlán Izcalli, en el cual se realizan recolecciones mensuales de cartón, pet, vidrio, tetrapack y artículos electrónicos para ayudar al medio ambiente. Se recolecta desde el año 2018 y lo que va del año 2019.</t>
+  </si>
+  <si>
+    <t>Se inauguró un nuevo #PuntoNaranja para apoyar, atender y acompañar a las mujeres que se sienten inseguras.</t>
+  </si>
+  <si>
+    <t>Se realizó un donativo en Mall Plaza Lincoln, consistente en sillas y mesas. Esto se formará parte del mobiliario de la próxima ludoteca infantil, dentro de las instalaciones del Instituto</t>
+  </si>
+  <si>
+    <t>Se realizo el tradicional encendido de arbolitos navideños 2022 en nuestros centros comerciales.</t>
+  </si>
+  <si>
+    <t>De enero a julio del 2022 se realizo la donación que alcanza los 3,722 kilos de tapitas. Con esta cantidad se pueden comprar poco más de 115 dosis de metrotexato ó 40 dosis de purinethol; quimioterapias esenciales en los tratamientos de los pacientes.</t>
+  </si>
+  <si>
+    <t>Se han acopiado 19,201 kg que equivale a 614,432 botellas de plástico recicladas y 33,410 kg de CO2 que se dejan de emitir al medio ambiente. De enero-julio 2022</t>
+  </si>
+  <si>
+    <t>Se participo con el  Banco de Tapitas A.C en el Programa de Recolección de Tapitas de Plástico para Apoyo a Niños con Diagnóstico de Cáncer.</t>
+  </si>
+  <si>
+    <t>Se han acopiado 324,448 botellas de plástico recicladas y 17,642 kg de CO2 que se dejan de emitir al medio ambiente. De enero-abril 2022</t>
+  </si>
+  <si>
+    <t>Se realizo la entrega de juguetes que se recolectaron con la alianza DIF de Santa Catarina y Alianza Anticáncer.</t>
+  </si>
+  <si>
+    <t>En conjunto con el DIF de Santa Catarina se recaudaron 382 artículos entre juguetes y taparroscas, con el objetivo de ayudar a la FUNDACIÓN ALIANZA ANTICÁNCER.</t>
+  </si>
+  <si>
+    <t>En lo que va del 2021, se juntaron 30,155 kg lo que equivale a 964,960 botellas de plástico recicladas y 52,470 kg y en 2022, un total de 4,346 kg lo que equivale a 139,072 botellas de plástico recicladas y 7,562 kg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2021 se realizo una colaboración con Grupo AlEn y se logro apoyar a la Asociación Unidas Contigo conformada por mujeres sobrevivientes de cáncer de mama y voluntarias. </t>
+  </si>
+  <si>
+    <t>La donación de tapitas cada día va en aumento. En nuestras plazas comerciales se encuentran corazones para su recolección.  Logros mes de julio: 26.98 Toneladas de tapitas, + de 1,029 suplementos alimenticios., + de 500 quimioterapias y tratamientos,  beneficiado a más de 400 personas.</t>
+  </si>
+  <si>
+    <t>Para apoyar con los incendios forestales recientes en la sierra de Arteaga Coahuila y de Santiago Nuevo León, se crearon centros de acopio en las plazas comerciales de Nuevo León y Coahuila.</t>
+  </si>
+  <si>
+    <t>Se realizó la donación de materiales para la Fundación Hélice con la cual se obtuvieron los siguientes beneficios ambientales: Conservación de 76 árboles,  Ahorro de 135,870 litros en agua, 4,529 kg de reducción en material de relleno sanitario.</t>
+  </si>
+  <si>
+    <t>Se colocaron 2 máquinas de reciclaje en las siguientes plazas: Urban Village Garza Sada y Plaza Real Saltillo. Con la finalidad de sumarnos a esta iniciativa de promover el reciclaje</t>
+  </si>
+  <si>
+    <t>A la fecha se han recolectado más de 15 toneladas de tapitas y así ayudado a más de 130 pacientes con Cáncer Infantil</t>
+  </si>
+  <si>
+    <t>Nos sumamos a la iniciativa para promover espacios en nuestras plazas para los estudiantes con espacio para que niños y jóvenes estudiantes tengan acceso a internet a través de nuestro WIFI y puedan continuar con sus estudios.</t>
+  </si>
+  <si>
+    <t>Se realizó un concurso de nacimientos a nivel nacional, hecho de materiales reciclados como integración familiar y conservación de tradiciones.</t>
+  </si>
+  <si>
+    <t>Nos unimos a la iniciativa Laptops con causa para apoyar a estudiantes de preparatoria y univesidad a continuar sus estudios.</t>
+  </si>
+  <si>
+    <t>Se realizó la tradicional rosca de reyes y actividades con los Reyes magos para toda la familia.</t>
+  </si>
+  <si>
+    <t>Se apoyo con la donación de 2100 caretas que son de utilidad para la protección de los oficiales del municipio de Zapopan que día a día están en las calles y tienen un alto riesgo de contagio</t>
+  </si>
+  <si>
+    <t>El primero de diciembre del 2019, se llevo a cabo la carrera Planigrupo-Santa Catarina en conjunto con el gobierno de Santa Catarina, NL. Que como inscripción pedía traer un juguete nuevo.</t>
+  </si>
+  <si>
+    <t>En conjunto con TV AZTECA se llevo a cabo el gran casting La Academia en Macroplaza Estado y Macroplaza Oaxaca como sedes oficiales. Donde se promovió la convivencia familiar.</t>
+  </si>
+  <si>
+    <t>Se realizó un evento con actividades culturales para preservar y fomentar las tradiciones mexicanas.</t>
+  </si>
+  <si>
+    <t>Se recibió el reconocimiento por parte de El Encuentro Mundial de Valores ABP. Donde se nos otorga el agradecimiento por el apoyo y colaboración en el proyecto "Sembrando Compasión por ti y por el planeta"</t>
+  </si>
+  <si>
+    <t>El 12 de octubre del 2019 el Comité XI Encuentro Mundial de Valores otorgó a la Arq. Karime Garza Serna quien es nuestra directora de operaciones el documento en el cual se le otorga la Certificación Mundial a PLANIGRUPO como Empresa Compasiva</t>
+  </si>
+  <si>
+    <t>En apoyo a las zonas afectadas por el sismo de septiembre del 2017, se colocó un centro de acopio en la plaza, lo recolectado fue entregado al DIF municipal el 5 de octubre del 2017.</t>
+  </si>
+  <si>
+    <t>Se otorgo un espacio en el estacionamiento de la plaza para llevar a cabo la feria del empleo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se instaló un centro de acopio para recolectar víveres a los damnificados de forma permanente, después del sismo del 2016 y las inundaciones en Nayarit en el 2018.</t>
+  </si>
+  <si>
+    <t>Se instalo tecnología led en el exterior e interior de la plaza. Se cambiaron 181 luminarias</t>
+  </si>
+  <si>
+    <t>Se cambiaron 85 luminarias ordinarias a luminarias con tecnología LED</t>
+  </si>
+  <si>
+    <t>Se realizo el cambio de luminarias en etapas iniciando desde el año 2016 para reducir el consumo energético y en el 2017 se siguieron cambiando luminarias en el exterior e interior de la plaza.</t>
+  </si>
+  <si>
+    <t>Apoyo en la difusión cultural de la música mexicana a nivel internacional del 23 al 31 de agosto del 2018</t>
+  </si>
+  <si>
+    <t>Se implementa la recolección de residuos y reciclaje desde el 2015.</t>
+  </si>
+  <si>
+    <t>Se cambiaron mingitorios y baños para el ahorro de agua. Cambiando a sistemas e agua libre en el 2016 y cambios en planta baja y área de restaurantes en el año 2018 y 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para el ahorro de energía y ayudar al medio ambiente, desde el año 2015 al 2019, se han estado cambiando luminarias del estacionamiento, áreas comunes en ambas plantas y la iluminación general del centro comercial. </t>
+  </si>
+  <si>
+    <t>Se proporciona espacios de manera altruista para el apoyo de la causa de UNICEFF a favor de la niñez. 6 de marzo del 2018</t>
+  </si>
+  <si>
+    <t>Se creo un centro de acopio para los damnificados de Oaxaca. 11 de octubre 2017</t>
+  </si>
+  <si>
+    <t>Se creó un centro de acopio para damnificados por el terremoto del 2017 y se recaudaron distintos víveres.</t>
+  </si>
+  <si>
+    <t>Se participó en las jornadas por el empleo, impartida por la presidencia municipal.</t>
+  </si>
+  <si>
+    <t>Se implementó la ley que prohíbe el uso de popotes y bolsas de plástico. Abril 2019 y se implementó el programa de separación de residuos orgánicos e inorgánicos ente los locatarios.</t>
+  </si>
+  <si>
+    <t>Se colocaron luminarias ahorradoras en interior y exterior con tecnología LED para disminuir el consumo de energía y se colocaron solatubes en pasillos para aprovechar la luz natural y disminuir el consumo de energía.</t>
+  </si>
+  <si>
+    <t>Se instalaron mingitorios secos para el ahorro de agua, equipos ahorradores de agua en lavamanos y baños, así como  equipos ahorradores de papel higiénico para reducir su uso y evitar que se desperdicie.</t>
+  </si>
+  <si>
+    <t>Se instalaron solatubes para el aprovechamiento de luz natural y disminución de energía eléctrica, así como  mingitorios de gravedad para el ahorro de agua.</t>
+  </si>
+  <si>
+    <t>Se creó un centro de acopio donde se recaudaron víveres para ayudar a los damnificados del sismo de Oaxaca en el 2017</t>
+  </si>
+  <si>
+    <t>Se brindaron cursos de primeros auxilios por parte de la cruz roja mexicana.</t>
+  </si>
+  <si>
+    <t>Se realizan campañas en conjunto con la cruz roja mexicana, brindando cursos e información.</t>
+  </si>
+  <si>
+    <t>Se tuvo participación con Green Peace en la campaña unión a la organización como socio donador, cyber-activista o voluntario.</t>
+  </si>
+  <si>
+    <t>Se utilizan equipos de aire acondicionado tipo r410 que son ecológicos y ayudan al medio ambiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se colocaron cestos de basura para su separación (orgánica e inorgánica).   Se realiza la separación y disposición de cartón para su reciclaje.</t>
+  </si>
+  <si>
+    <t>Se colocaron luminarias ahorrativas para el cuidado del medio ambiente.</t>
+  </si>
+  <si>
+    <t>Se instalaron equipos ahorradores de agua en lavamanos y sanitarios y se instalaron equipos para disminuir el consumo de papel higiénico.</t>
+  </si>
+  <si>
+    <t>El principio de la compasión esta en el corazón de todas las tradiciones religiosas, éticas y espirituales, llamándonos siempre a tratar a todos los demás como deseamos ser tratados a nosotros mismos.</t>
+  </si>
+  <si>
+    <t>Se realizó el cambio de luminaria a tecnología LED, dentro y fuera de la plaza.</t>
+  </si>
+  <si>
+    <t>Se realizó la entrega de diversos kits de útiles escolares a niños de la comunidad.</t>
+  </si>
+  <si>
+    <t>Se llevo a cabo el cambio de cinta a los alumnos de taekwondo del centro FOVISSSTE y se realizo una exhibición para promover el deporte.</t>
+  </si>
+  <si>
+    <t>Se tuvo participación en la carrera de la amistad, donde se entregaron obsequios a los participantes.</t>
+  </si>
+  <si>
+    <t>Se realizaron actividades de esparcimiento, realizando campamento de verano para la comunidad en juio 2018 y 2019.</t>
+  </si>
+  <si>
+    <t>Se realizo una visita a comedor infantil el buen pastor, para celebrar el día del niño donde se convivió con ellos y se les entregaron obsequios.</t>
+  </si>
+  <si>
+    <t>Se cambiaron lámparas en interior y exterior para el ahorro de energía.</t>
+  </si>
+  <si>
+    <t>Acopio de computadoras, CPU, teclados, mouse para donarlo a alguna asociación.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de promover el desarrollo mental y físico la escuela kinkayou la cual realizó exhibiciones en la plaza y se les brindó espació a escuelas y academias de la comunidad para la realización de presentaciones..</t>
+  </si>
+  <si>
+    <t>El instituto nacional para la educación de los adultos (INEA) ofreció servicio de educación básica a personas mayores de 15 años, entregando 1085 certificados entre primaria y secundaria.</t>
+  </si>
+  <si>
+    <t>En el 2018 y lo que va del 2019 se reemplazaron luminarias de halógeno y fluorescentes a LED, dentro y fuera de la plaza.</t>
+  </si>
+  <si>
+    <t>Se realizo el cambio de jardinería a plantas desérticas para reducir el consumo de agua.</t>
+  </si>
+  <si>
+    <t>Se le brindo espació a escuela Fusión Arts para su exhibición de baile como un elemento de expresión para jóvenes.</t>
+  </si>
+  <si>
+    <t>El 2 de abril del 2019, se conto con la presencia de la escuela CAM jardín Guaycura, escuela dedicada a atender niños con autismo. Asistieron cerca de 100 niños con su familia.</t>
+  </si>
+  <si>
+    <t>El 26 de noviembre del 2018, se brindó un espacio donde se realizaron 64 estudios de mastografía para la detección de cáncer de mama. Por la Dra. Eva Guerrer para el programa cáncer de la mujer de la jurisdicción sanitaria Tijuana del ISESALUD BC.</t>
+  </si>
+  <si>
+    <t>El 19 de febrero del 2018, se llevó a cabo la primer expo carreras con la participación de 10 universidades. Donde los asistentes tuvieron la oportunidad de conocer ofertas académicas.</t>
+  </si>
+  <si>
+    <t>El 24 de noviembre del 2018, se llevó a cabo el encendido del árbol navideño, donde se realizaron distintas actividades para los asistentes.</t>
+  </si>
+  <si>
+    <t>Se celebró el 12 aniversario de la plaza. Donde se contaron con actividades para todos los asistentes, fomentando la participación de la comunidad y la convivencia.</t>
+  </si>
+  <si>
+    <t>En el estacionamiento de la plaza se inauguró la caseta de seguridad pública municipal, la cual cuenta con juez calificador, policía judicial y ministerial. También con 2 motocicletas y 2 patrullas.</t>
+  </si>
+  <si>
+    <t>Se realizó una convocatoria para la recaudación de víveres en apoyo a los damnificados por el sismo del 7 de septiembre del 2017. Donde se logró recaudar 5 toneladas de víveres.</t>
+  </si>
+  <si>
+    <t>Se realizó el cambio de luminarias en interiores y exteriores a tecnología LED. Se cambiaron un total de 183 luminarias.</t>
+  </si>
+  <si>
+    <t>La comunidad China jugó un papel importante en el nacimiento de Mexicali, como comunidad cada año participamos en los festejos del año nuevo chino que es una fecha muy importante para ellos. Al celebrarlo es creencia en riqueza y prosperidad.</t>
+  </si>
+  <si>
+    <t>Se tuvo la participación de la banda militar a cargo de la ll región militar, con una presencia de 500 personas.</t>
+  </si>
+  <si>
+    <t>Por tercer año consecutivo se participó como patrocinador de la carrera ciclista MXLI-Rumorosa, con participantes de México, USA y Canadá.</t>
+  </si>
+  <si>
+    <t>Cada año el instituto de salud pública del Estado de Baja California nos solicita un espacio para sus campañas de vacunación. A lo largo del año se tienen entre 4 y 5 campañas.</t>
+  </si>
+  <si>
+    <t>Cada año se participa como centro de acopio para la fundación Hélice asociación civil sin fines de lucro.</t>
+  </si>
+  <si>
+    <t>En apoyo a los estados de Chiapas y Oaxaca se instaló un centro de acopio, donde se juntaron cerca de 2 toneladas de víveres.</t>
+  </si>
+  <si>
+    <t>Durante el mes de octubre se apoyó a la fundación dibujando mil sonrisas, donde se encuentran apoyando a la fundación mujeres que viven, sobrevivientes al cáncer. Se realizó la recolección de cabello para elaboración de pelucas a cambio de esto la fundación mujeres que viven apoyan con prótesis de pecho y brasieres ortopédicos y ayuda psicológica par las mujeres.</t>
+  </si>
+  <si>
+    <t>Se obsequiaron pañales para adulto mayores</t>
+  </si>
+  <si>
+    <t>Se realizo la entrega de artículos escolares a niños, fomentando así la educación y se realizaron campamentos de verano, con diversas actividades culturales, deportivas y de educación.</t>
+  </si>
+  <si>
+    <t>Se realizaron cambios en luminarias para apoyar al medio ambiente, ya que consumen 8.9 veces menos que una bombilla tradicional.</t>
+  </si>
+  <si>
+    <t>Se realizo la colecta en favor a los damnificados por el sismo del mes de septiembre del 2017. Donde se recaudaron diferentes cosas y fueron enviadas a las comunidades afectadas.</t>
+  </si>
+  <si>
+    <t>Se realizan distintas actividades donde se fomenta el deporte; como la exhibición de una escuela de Taekwondo.</t>
+  </si>
+  <si>
+    <t>Durante todo el año se realizan actividades de entretenimiento. Para fomentar la participación de la comunidad y la convivencia familiar.</t>
+  </si>
+  <si>
+    <t>Se dio a la tarea de obsequiar material deportivo para niños y niñas de diferentes casas hogar. Donde de ahora en adelante podrán hacer gimnasia, jugar béisbol y futbol.</t>
+  </si>
+  <si>
+    <t>Se colocaron centros de recolección de ropa, mantas y juguetes en Plaza Real Saltillo, La Nogalera, Plaza Bella Ramos Arizpe, Plaza Bella Huinalá, Plaza Bella Anahuac y Mall Plaza Lincoln, donde se recogieron un total de 3120 artículos, 100 pares de zapatos, 535 juguetes y 10 mantas.</t>
+  </si>
+  <si>
+    <t>En conjunto con la asociación civil “Aquí está tu servilleta”, se acudio a una comunidad de escasos recursos donde ahí se les regaló una Rosca de Reyes y una tarde llena de diversión con algunos de sus súper héroes favoritos y a su vez se les obsequiaron diversos pares de zapatos para toda la familia.</t>
+  </si>
+  <si>
+    <t>Manda tus Kilos a Volar con la motivación de un viaje a Cancún. Donde durante 7 semanas se convivió con amigos y familias mediante diversos tipos de baile para mandar esos kilos a volar. Se perdieron 172 kilos y 257 centímetros reducidos.</t>
+  </si>
+  <si>
+    <t>Plaza Hipódromo es reconocida por su apoyo a la facilitación de sus instalaciones para la recaudación de fondos a través del programa cara a cara ACNUR, septiembre de 2019.</t>
+  </si>
+  <si>
+    <t>Ciudadela Urban Village fue sede de la 1ra. United Race y volverá a estar en la carrera en 2019.</t>
+  </si>
+  <si>
+    <t>En apoyo de la Fundación Tiempo por sonrisas en la que por cada 1000 tapitas recolectadas se le dio una quimioterapia gratis a un niño. Macroplaza del Valle recolectó 2,000,000 de tapitas que son equivalentes a 2,000 quimioterapias.</t>
+  </si>
+  <si>
+    <t>Colectivo Ambiental Isla Verde nos invitó a sumarnos a su campaña de reciclaje de electrodomésticos, la cual fue llevada a cabo dentro de nuestro centro comercial. Se apoyó con espacio dentro de la plaza para juntar los electrodomésticos recolectados. Se lograron juntar 18,640 kg de diversos electrodomésticos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1398,6 +1776,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1423,7 +1808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1446,12 +1831,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1475,6 +1869,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1757,24 +2169,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="78" customWidth="1"/>
-    <col min="10" max="10" width="96.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="89.33203125" customWidth="1"/>
+    <col min="11" max="11" width="67.33203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1799,13 +2212,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1834,10 +2247,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1862,14 +2278,17 @@
       <c r="H3" s="4">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1894,14 +2313,17 @@
       <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1926,14 +2348,17 @@
       <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1958,14 +2383,17 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1990,14 +2418,17 @@
       <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2022,14 +2453,17 @@
       <c r="H8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2054,14 +2488,17 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2086,14 +2523,17 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2118,14 +2558,17 @@
       <c r="H11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2150,14 +2593,17 @@
       <c r="H12" s="4">
         <v>3</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2182,14 +2628,17 @@
       <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2214,14 +2663,17 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2246,14 +2698,17 @@
       <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2278,14 +2733,17 @@
       <c r="H16" s="4">
         <v>2</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2310,14 +2768,17 @@
       <c r="H17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2342,14 +2803,17 @@
       <c r="H18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2374,14 +2838,17 @@
       <c r="H19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="8" t="s">
         <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2410,10 +2877,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2438,14 +2908,17 @@
       <c r="H21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="8" t="s">
         <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2470,14 +2943,17 @@
       <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="8" t="s">
         <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2502,14 +2978,17 @@
       <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2534,14 +3013,17 @@
       <c r="H24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2566,14 +3048,17 @@
       <c r="H25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2598,14 +3083,17 @@
       <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -2630,14 +3118,17 @@
       <c r="H27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="8" t="s">
         <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2662,14 +3153,17 @@
       <c r="H28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="8" t="s">
         <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2694,14 +3188,17 @@
       <c r="H29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="8" t="s">
         <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -2726,14 +3223,17 @@
       <c r="H30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="8" t="s">
         <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -2758,14 +3258,17 @@
       <c r="H31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2790,14 +3293,17 @@
       <c r="H32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="8" t="s">
         <v>104</v>
       </c>
       <c r="J32" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2826,10 +3332,13 @@
         <v>107</v>
       </c>
       <c r="J33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2858,10 +3367,13 @@
         <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2890,10 +3402,13 @@
         <v>111</v>
       </c>
       <c r="J35" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -2922,10 +3437,13 @@
         <v>114</v>
       </c>
       <c r="J36" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -2950,14 +3468,17 @@
       <c r="H37" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="8" t="s">
         <v>119</v>
       </c>
       <c r="J37" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2982,14 +3503,17 @@
       <c r="H38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3014,14 +3538,17 @@
       <c r="H39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="8" t="s">
         <v>126</v>
       </c>
       <c r="J39" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -3046,14 +3573,17 @@
       <c r="H40" s="4">
         <v>2</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="8" t="s">
         <v>128</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -3078,14 +3608,17 @@
       <c r="H41" s="4">
         <v>2</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="8" t="s">
         <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -3110,14 +3643,17 @@
       <c r="H42" s="4">
         <v>2</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="8" t="s">
         <v>131</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -3142,14 +3678,17 @@
       <c r="H43" s="4">
         <v>4</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -3174,14 +3713,17 @@
       <c r="H44" s="4">
         <v>5</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="8" t="s">
         <v>137</v>
       </c>
       <c r="J44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -3206,14 +3748,17 @@
       <c r="H45" s="4">
         <v>2</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="8" t="s">
         <v>138</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3238,14 +3783,17 @@
       <c r="H46" s="4">
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="8" t="s">
         <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -3270,14 +3818,17 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J47" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -3302,14 +3853,17 @@
       <c r="H48" s="4">
         <v>2</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="8" t="s">
         <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -3334,14 +3888,17 @@
       <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="8" t="s">
         <v>147</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -3366,14 +3923,17 @@
       <c r="H50" s="4">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="8" t="s">
         <v>149</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3398,14 +3958,17 @@
       <c r="H51" s="4">
         <v>1</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="8" t="s">
         <v>151</v>
       </c>
       <c r="J51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -3430,14 +3993,17 @@
       <c r="H52" s="4">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J52" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3462,14 +4028,17 @@
       <c r="H53" s="4">
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="8" t="s">
         <v>156</v>
       </c>
       <c r="J53" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3494,14 +4063,17 @@
       <c r="H54" s="4">
         <v>9</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="8" t="s">
         <v>158</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -3526,14 +4098,17 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="8" t="s">
         <v>161</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -3558,14 +4133,17 @@
       <c r="H56" s="4">
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="8" t="s">
         <v>163</v>
       </c>
       <c r="J56" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
@@ -3590,14 +4168,17 @@
       <c r="H57" s="4">
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="8" t="s">
         <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -3622,14 +4203,17 @@
       <c r="H58" s="4">
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="8" t="s">
         <v>167</v>
       </c>
       <c r="J58" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
@@ -3654,14 +4238,17 @@
       <c r="H59" s="4">
         <v>2</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="8" t="s">
         <v>169</v>
       </c>
       <c r="J59" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -3686,14 +4273,17 @@
       <c r="H60" s="4">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="8" t="s">
         <v>172</v>
       </c>
       <c r="J60" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -3718,14 +4308,17 @@
       <c r="H61" s="4">
         <v>6</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="8" t="s">
         <v>173</v>
       </c>
       <c r="J61" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -3750,14 +4343,17 @@
       <c r="H62" s="4">
         <v>1</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="8" t="s">
         <v>174</v>
       </c>
       <c r="J62" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -3782,14 +4378,17 @@
       <c r="H63" s="4">
         <v>1</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J63" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -3814,14 +4413,17 @@
       <c r="H64" s="4">
         <v>3</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="8" t="s">
         <v>178</v>
       </c>
       <c r="J64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -3846,14 +4448,17 @@
       <c r="H65" s="4">
         <v>2</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="8" t="s">
         <v>180</v>
       </c>
       <c r="J65" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -3878,14 +4483,17 @@
       <c r="H66" s="4">
         <v>10</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="8" t="s">
         <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3910,14 +4518,17 @@
       <c r="H67" s="4">
         <v>4</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="8" t="s">
         <v>182</v>
       </c>
       <c r="J67" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -3946,10 +4557,13 @@
         <v>185</v>
       </c>
       <c r="J68" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3978,10 +4592,13 @@
         <v>187</v>
       </c>
       <c r="J69" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -4006,14 +4623,17 @@
       <c r="H70" s="4">
         <v>1</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="J70" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -4042,10 +4662,13 @@
         <v>192</v>
       </c>
       <c r="J71" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -4070,14 +4693,17 @@
       <c r="H72" s="4">
         <v>3</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="8" t="s">
         <v>194</v>
       </c>
       <c r="J72" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -4102,14 +4728,17 @@
       <c r="H73" s="4">
         <v>3</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="8" t="s">
         <v>196</v>
       </c>
       <c r="J73" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
@@ -4134,14 +4763,17 @@
       <c r="H74" s="4">
         <v>8</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="8" t="s">
         <v>198</v>
       </c>
       <c r="J74" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -4166,14 +4798,17 @@
       <c r="H75" s="4">
         <v>3</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="8" t="s">
         <v>200</v>
       </c>
       <c r="J75" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -4198,14 +4833,17 @@
       <c r="H76" s="4">
         <v>2</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="8" t="s">
         <v>202</v>
       </c>
       <c r="J76" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -4230,14 +4868,17 @@
       <c r="H77" s="4">
         <v>1</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="8" t="s">
         <v>204</v>
       </c>
       <c r="J77" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -4262,14 +4903,17 @@
       <c r="H78" s="4">
         <v>3</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="8" t="s">
         <v>207</v>
       </c>
       <c r="J78" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -4294,14 +4938,17 @@
       <c r="H79" s="4">
         <v>6</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="8" t="s">
         <v>210</v>
       </c>
       <c r="J79" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -4326,14 +4973,17 @@
       <c r="H80" s="4">
         <v>2</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="8" t="s">
         <v>212</v>
       </c>
       <c r="J80" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>10</v>
       </c>
@@ -4362,10 +5012,13 @@
         <v>214</v>
       </c>
       <c r="J81" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -4390,14 +5043,17 @@
       <c r="H82" s="4">
         <v>9</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="8" t="s">
         <v>218</v>
       </c>
       <c r="J82" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
@@ -4422,14 +5078,17 @@
       <c r="H83" s="4">
         <v>5</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="8" t="s">
         <v>216</v>
       </c>
       <c r="J83" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -4458,10 +5117,13 @@
         <v>220</v>
       </c>
       <c r="J84" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -4486,14 +5148,17 @@
       <c r="H85" s="4">
         <v>2</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="8" t="s">
         <v>222</v>
       </c>
       <c r="J85" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -4518,14 +5183,17 @@
       <c r="H86" s="4">
         <v>2</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="8" t="s">
         <v>226</v>
       </c>
       <c r="J86" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -4550,14 +5218,17 @@
       <c r="H87" s="4">
         <v>4</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="8" t="s">
         <v>228</v>
       </c>
       <c r="J87" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -4586,10 +5257,13 @@
         <v>230</v>
       </c>
       <c r="J88" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -4618,10 +5292,13 @@
         <v>232</v>
       </c>
       <c r="J89" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -4650,10 +5327,13 @@
         <v>234</v>
       </c>
       <c r="J90" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -4682,10 +5362,13 @@
         <v>236</v>
       </c>
       <c r="J91" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -4714,15 +5397,18 @@
         <v>239</v>
       </c>
       <c r="J92" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>238</v>
+        <v>474</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>237</v>
@@ -4740,21 +5426,24 @@
         <v>35</v>
       </c>
       <c r="H93" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J93" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>237</v>
@@ -4772,21 +5461,24 @@
         <v>35</v>
       </c>
       <c r="H94" s="4">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>241</v>
+        <v>7</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="J94" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>237</v>
@@ -4804,24 +5496,27 @@
         <v>35</v>
       </c>
       <c r="H95" s="4">
-        <v>7</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="J95" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D96" s="4">
         <v>30</v>
@@ -4836,24 +5531,27 @@
         <v>35</v>
       </c>
       <c r="H96" s="4">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>245</v>
+        <v>5</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="J96" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D97" s="4">
         <v>30</v>
@@ -4868,24 +5566,27 @@
         <v>35</v>
       </c>
       <c r="H97" s="4">
-        <v>5</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>248</v>
+        <v>8</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="J97" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D98" s="4">
         <v>30</v>
@@ -4900,30 +5601,33 @@
         <v>35</v>
       </c>
       <c r="H98" s="4">
-        <v>8</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="J98" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D99" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F99" s="4">
         <v>2019</v>
@@ -4932,48 +5636,54 @@
         <v>35</v>
       </c>
       <c r="H99" s="4">
-        <v>2</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>252</v>
+        <v>4</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="J99" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D100" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F100" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H100" s="4">
-        <v>4</v>
-      </c>
-      <c r="I100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>254</v>
       </c>
       <c r="J100" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -4981,13 +5691,13 @@
         <v>256</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D101" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F101" s="4">
         <v>2018</v>
@@ -4998,60 +5708,66 @@
       <c r="H101" s="4">
         <v>2</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>255</v>
+      <c r="I101" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="J101" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D102" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F102" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H102" s="4">
-        <v>2</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>258</v>
+        <v>5</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="J102" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D103" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F103" s="4">
         <v>2019</v>
@@ -5060,24 +5776,27 @@
         <v>35</v>
       </c>
       <c r="H103" s="4">
-        <v>5</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>260</v>
+        <v>3</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="J103" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="4">
         <v>30</v>
@@ -5094,25 +5813,28 @@
       <c r="H104" s="4">
         <v>3</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>262</v>
+      <c r="I104" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="J104" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D105" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>31</v>
@@ -5124,27 +5846,30 @@
         <v>35</v>
       </c>
       <c r="H105" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J105" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="D106" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>31</v>
@@ -5156,30 +5881,33 @@
         <v>35</v>
       </c>
       <c r="H106" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J106" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D107" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F107" s="4">
         <v>2019</v>
@@ -5188,30 +5916,33 @@
         <v>35</v>
       </c>
       <c r="H107" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J107" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D108" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="F108" s="4">
         <v>2019</v>
@@ -5220,30 +5951,33 @@
         <v>35</v>
       </c>
       <c r="H108" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J108" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D109" s="4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="F109" s="4">
         <v>2019</v>
@@ -5252,7 +5986,7 @@
         <v>35</v>
       </c>
       <c r="H109" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>273</v>
@@ -5260,8 +5994,11 @@
       <c r="J109" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -5272,10 +6009,10 @@
         <v>78</v>
       </c>
       <c r="D110" s="4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" s="4">
         <v>2019</v>
@@ -5284,21 +6021,24 @@
         <v>35</v>
       </c>
       <c r="H110" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J110" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>78</v>
@@ -5307,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F111" s="4">
         <v>2019</v>
@@ -5316,30 +6056,33 @@
         <v>35</v>
       </c>
       <c r="H111" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J111" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D112" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F112" s="4">
         <v>2019</v>
@@ -5348,21 +6091,24 @@
         <v>35</v>
       </c>
       <c r="H112" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J112" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>78</v>
@@ -5380,24 +6126,27 @@
         <v>35</v>
       </c>
       <c r="H113" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J113" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="D114" s="4">
         <v>30</v>
@@ -5412,7 +6161,7 @@
         <v>35</v>
       </c>
       <c r="H114" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>283</v>
@@ -5420,8 +6169,11 @@
       <c r="J114" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -5429,10 +6181,10 @@
         <v>285</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D115" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>31</v>
@@ -5444,24 +6196,27 @@
         <v>35</v>
       </c>
       <c r="H115" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J115" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D116" s="4">
         <v>27</v>
@@ -5476,24 +6231,27 @@
         <v>35</v>
       </c>
       <c r="H116" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J116" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D117" s="4">
         <v>27</v>
@@ -5508,24 +6266,27 @@
         <v>35</v>
       </c>
       <c r="H117" s="4">
-        <v>5</v>
-      </c>
-      <c r="I117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="8" t="s">
         <v>290</v>
       </c>
       <c r="J117" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D118" s="4">
         <v>27</v>
@@ -5540,24 +6301,27 @@
         <v>35</v>
       </c>
       <c r="H118" s="4">
-        <v>2</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>291</v>
+        <v>3</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="J118" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D119" s="4">
         <v>27</v>
@@ -5572,27 +6336,30 @@
         <v>35</v>
       </c>
       <c r="H119" s="4">
-        <v>3</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>293</v>
+        <v>2</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="J119" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D120" s="4">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>31</v>
@@ -5601,27 +6368,30 @@
         <v>2019</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="4">
-        <v>2</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>295</v>
+        <v>24</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="J120" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D121" s="4">
         <v>19</v>
@@ -5635,25 +6405,28 @@
       <c r="G121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H121" s="6" t="s">
+      <c r="H121" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>298</v>
+      <c r="I121" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="J121" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D122" s="4">
         <v>19</v>
@@ -5668,24 +6441,27 @@
         <v>24</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="J122" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D123" s="4">
         <v>19</v>
@@ -5700,27 +6476,30 @@
         <v>24</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I123" s="2" t="s">
         <v>306</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="J123" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D124" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>31</v>
@@ -5729,27 +6508,30 @@
         <v>2019</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="H124" s="4">
+        <v>4</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="J124" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>312</v>
+        <v>117</v>
       </c>
       <c r="D125" s="4">
         <v>13</v>
@@ -5764,24 +6546,27 @@
         <v>35</v>
       </c>
       <c r="H125" s="4">
-        <v>4</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>313</v>
+        <v>2</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="J125" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D126" s="4">
         <v>13</v>
@@ -5798,25 +6583,28 @@
       <c r="H126" s="4">
         <v>2</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>315</v>
+      <c r="I126" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="J126" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D127" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>31</v>
@@ -5828,49 +6616,20 @@
         <v>35</v>
       </c>
       <c r="H127" s="4">
-        <v>2</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>317</v>
+        <v>4</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="J127" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D128" s="4">
-        <v>12</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" s="4">
-        <v>2019</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" s="4">
-        <v>4</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J128" t="s">
-        <v>446</v>
+      <c r="K127" s="16" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I128" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:I127" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
@@ -5878,7 +6637,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A128 E2:E128" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E127 A2:A127" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5908,19 +6667,128 @@
     <hyperlink ref="I90" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I91" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="I92" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I105" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I106" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I107" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I109" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I114" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H122" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H123" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H124" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I2" r:id="rId36" xr:uid="{51207F75-BD35-441C-AE07-2E18F9A317BD}"/>
+    <hyperlink ref="I104" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I105" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I106" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I108" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I113" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H121" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H122" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H123" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I2" r:id="rId35" xr:uid="{51207F75-BD35-441C-AE07-2E18F9A317BD}"/>
+    <hyperlink ref="J8" r:id="rId36" xr:uid="{AA0C7267-807B-2B4E-9290-FF0BEE44B676}"/>
+    <hyperlink ref="J12" r:id="rId37" xr:uid="{B914E131-017F-A545-A5CF-AF46613A1692}"/>
+    <hyperlink ref="J47" r:id="rId38" xr:uid="{84D2764E-B9F2-1943-9681-EB1AEBCC6087}"/>
+    <hyperlink ref="I51" r:id="rId39" xr:uid="{D3091CDB-7E09-6F4B-ABEC-BB2935DF1D99}"/>
+    <hyperlink ref="I62" r:id="rId40" xr:uid="{D9A65927-83B6-9843-89F2-4D9AD638FCE3}"/>
+    <hyperlink ref="I67" r:id="rId41" xr:uid="{38FA7C5F-8758-C24F-95BC-0853AD288852}"/>
+    <hyperlink ref="I125" r:id="rId42" xr:uid="{E965D075-4ECC-8245-9C6E-D17D2ED0431F}"/>
+    <hyperlink ref="J70" r:id="rId43" xr:uid="{921E7E81-2A26-7B49-B9E9-1477268D05AE}"/>
+    <hyperlink ref="I70" r:id="rId44" xr:uid="{34F5136B-67AA-1349-AF34-29E0E961BDE3}"/>
+    <hyperlink ref="I42" r:id="rId45" xr:uid="{5C0F6F17-8390-4F49-9B03-E0377BC55A85}"/>
+    <hyperlink ref="I3" r:id="rId46" xr:uid="{49BF789C-E172-E143-86D0-3A9D2A39D544}"/>
+    <hyperlink ref="I4" r:id="rId47" xr:uid="{C9830D47-B914-B74E-942B-B688400D1938}"/>
+    <hyperlink ref="I5" r:id="rId48" xr:uid="{2194F2B7-D0FE-C445-8AE9-6EC050C3085C}"/>
+    <hyperlink ref="I6" r:id="rId49" xr:uid="{663D1F5C-4BFC-974D-9A0F-8DD8732B922E}"/>
+    <hyperlink ref="I7" r:id="rId50" xr:uid="{31AD838D-8FC8-A748-947C-12955A2DE1C4}"/>
+    <hyperlink ref="I8" r:id="rId51" xr:uid="{BB306DF5-379F-5F44-8AE9-6CE0595530E0}"/>
+    <hyperlink ref="I9" r:id="rId52" xr:uid="{86D28283-91C6-E444-AB05-0A6582DEE514}"/>
+    <hyperlink ref="J9" r:id="rId53" xr:uid="{508D6843-6F3E-2F42-B559-CD031732605F}"/>
+    <hyperlink ref="I10" r:id="rId54" xr:uid="{CEA15211-EF4D-F84E-B7BD-C85D1308EE05}"/>
+    <hyperlink ref="I11" r:id="rId55" xr:uid="{8EECCB77-7549-044E-9A54-B8ACD8E95A99}"/>
+    <hyperlink ref="I12" r:id="rId56" xr:uid="{90CC8F7A-C190-3642-B30B-0079030D77E0}"/>
+    <hyperlink ref="I13" r:id="rId57" xr:uid="{7E563C07-42F2-9D45-BCD6-64E600E3D6F0}"/>
+    <hyperlink ref="I14" r:id="rId58" xr:uid="{416BCFD4-EF9C-A44F-8BD4-5CDA5DC7D6EF}"/>
+    <hyperlink ref="I15" r:id="rId59" xr:uid="{E5DD60A1-3B15-7249-9896-0DA7AAC2030E}"/>
+    <hyperlink ref="I16" r:id="rId60" xr:uid="{E20CA341-17DF-774E-9374-DAB0F6420887}"/>
+    <hyperlink ref="I17" r:id="rId61" xr:uid="{BD264810-0271-5E49-ADA6-E04753F6105D}"/>
+    <hyperlink ref="I18" r:id="rId62" xr:uid="{03BF4EDF-16B7-8045-A7CB-7B3F2D01F26D}"/>
+    <hyperlink ref="I19" r:id="rId63" xr:uid="{859CC976-57CA-FB41-84CC-2697BD36A581}"/>
+    <hyperlink ref="I21" r:id="rId64" xr:uid="{107C23E8-899F-0546-B133-8AF98DD13271}"/>
+    <hyperlink ref="I22" r:id="rId65" xr:uid="{9B1C07F4-202C-4C4A-929E-3BE53FCE2BE1}"/>
+    <hyperlink ref="I23" r:id="rId66" xr:uid="{F514CCF3-57C1-044D-8B16-72479363F8BC}"/>
+    <hyperlink ref="I24" r:id="rId67" xr:uid="{712FD54F-9F2E-564F-AD1D-5290EC9E1AE7}"/>
+    <hyperlink ref="I26" r:id="rId68" xr:uid="{B3EAA2F4-084E-7941-B6A8-EAFAFA85277C}"/>
+    <hyperlink ref="I27" r:id="rId69" xr:uid="{0CBDD6B6-2A5B-F241-A457-799DF4D5D340}"/>
+    <hyperlink ref="I28" r:id="rId70" xr:uid="{2C85DE96-A81E-8D4C-9DC9-58A0C13237A1}"/>
+    <hyperlink ref="I29" r:id="rId71" xr:uid="{1A4B1DBA-25C9-B143-A4F0-2A6001C20D7B}"/>
+    <hyperlink ref="I30" r:id="rId72" xr:uid="{D5408F5A-FD98-C045-919C-27049322756E}"/>
+    <hyperlink ref="I31" r:id="rId73" xr:uid="{039607C0-C228-5548-ABA9-9721396146DC}"/>
+    <hyperlink ref="I32" r:id="rId74" xr:uid="{E706E807-C466-EE4B-A5DB-AA1C3B9D73CC}"/>
+    <hyperlink ref="I37" r:id="rId75" xr:uid="{9AB675AB-3BA3-8D4B-9DB1-86881E1453C8}"/>
+    <hyperlink ref="I38" r:id="rId76" xr:uid="{74E9679B-2BEC-8441-9141-427CFCF31931}"/>
+    <hyperlink ref="I39" r:id="rId77" xr:uid="{DC58C4F2-1BFA-3141-8D9C-3439B213ED50}"/>
+    <hyperlink ref="I40" r:id="rId78" xr:uid="{5DE8CB6E-543F-7049-98D2-BE0F9D2E8557}"/>
+    <hyperlink ref="I41" r:id="rId79" xr:uid="{F8B374D9-4B48-344C-BEFD-78D91AFFE0F2}"/>
+    <hyperlink ref="I43" r:id="rId80" xr:uid="{2E92A0C7-B12C-7848-92BD-BEDFD1AA5B94}"/>
+    <hyperlink ref="I44" r:id="rId81" xr:uid="{0F159B75-CAA0-2641-B385-01113C4A9F69}"/>
+    <hyperlink ref="I45" r:id="rId82" xr:uid="{567801EA-F8BB-E048-A54E-60A791002589}"/>
+    <hyperlink ref="I46" r:id="rId83" xr:uid="{736383B8-57ED-BE4E-AEE1-25B1E76CBD13}"/>
+    <hyperlink ref="I47" r:id="rId84" xr:uid="{165FF932-1124-E540-8838-E392F3974DF9}"/>
+    <hyperlink ref="I48" r:id="rId85" xr:uid="{52A610AB-A8EC-A64D-BB41-C5567DE5D8B4}"/>
+    <hyperlink ref="I49" r:id="rId86" xr:uid="{EDE026A9-534B-604D-9E55-80A166D48D14}"/>
+    <hyperlink ref="I50" r:id="rId87" xr:uid="{D8C27DC9-C442-7E43-A6F9-CCD1ACD17011}"/>
+    <hyperlink ref="I52" r:id="rId88" xr:uid="{4A50C7AE-FBC2-A240-9049-1501925B7CAA}"/>
+    <hyperlink ref="I53" r:id="rId89" xr:uid="{B43B9767-E64E-D542-861B-0ECEC23E59FA}"/>
+    <hyperlink ref="I54" r:id="rId90" xr:uid="{44B870F0-09BC-D94E-9760-23B73CBA11A8}"/>
+    <hyperlink ref="I55" r:id="rId91" xr:uid="{26E80E68-43A9-E14E-8E25-237C6A4F832C}"/>
+    <hyperlink ref="I56" r:id="rId92" xr:uid="{99E7EADF-2F8D-A448-8C03-1F9BB601875F}"/>
+    <hyperlink ref="I57" r:id="rId93" xr:uid="{F68D9BC0-4CC7-2C4A-B4DD-B3483BC84CFC}"/>
+    <hyperlink ref="I58" r:id="rId94" xr:uid="{AE4E7068-C9B1-264A-A71A-1D700159B13D}"/>
+    <hyperlink ref="I59" r:id="rId95" xr:uid="{02291CD1-E98D-F947-BA47-895F1C49C15B}"/>
+    <hyperlink ref="I60" r:id="rId96" xr:uid="{C4033BCB-23B9-334A-9A46-2AE921F866C6}"/>
+    <hyperlink ref="I61" r:id="rId97" xr:uid="{F3E19047-193F-7443-BEBF-41987A177EE7}"/>
+    <hyperlink ref="I63" r:id="rId98" xr:uid="{07BA064E-8964-D242-904A-343458DA999A}"/>
+    <hyperlink ref="I64" r:id="rId99" xr:uid="{EF6427D7-C40B-FC4B-B9CB-DB1940205A9F}"/>
+    <hyperlink ref="I65" r:id="rId100" xr:uid="{5FD774B2-B997-8949-9967-9868333DF51E}"/>
+    <hyperlink ref="I66" r:id="rId101" xr:uid="{CE2C2352-816C-CF4A-AFEA-25169215E5CB}"/>
+    <hyperlink ref="I72" r:id="rId102" xr:uid="{B5D52CB9-FCA2-9E4D-92B6-0EFC2671F8E3}"/>
+    <hyperlink ref="I73" r:id="rId103" xr:uid="{E4DF5492-BAE9-6B49-9616-4EAF9910D1FD}"/>
+    <hyperlink ref="I74" r:id="rId104" xr:uid="{25D688B7-3247-C841-B848-9716FF878E7B}"/>
+    <hyperlink ref="I75" r:id="rId105" xr:uid="{632FF1AE-50F7-E444-B2F1-24BFAA5B7C36}"/>
+    <hyperlink ref="I76" r:id="rId106" xr:uid="{87BE7989-5EFE-064E-AC1C-3B963FBD0D42}"/>
+    <hyperlink ref="I77" r:id="rId107" xr:uid="{9200CACE-91FD-6843-92E5-A97CE3E94F53}"/>
+    <hyperlink ref="I78" r:id="rId108" xr:uid="{49E0FE4E-7A2E-354A-8034-894D2D03EA07}"/>
+    <hyperlink ref="I79" r:id="rId109" xr:uid="{A7F49815-3E66-1C4A-8715-2306C701DC29}"/>
+    <hyperlink ref="I80" r:id="rId110" xr:uid="{D16D3813-5743-5249-9D2D-0EDBFEBC67D1}"/>
+    <hyperlink ref="I82" r:id="rId111" xr:uid="{4474F946-8A41-324F-AE8E-BBBC68D909BD}"/>
+    <hyperlink ref="I83" r:id="rId112" xr:uid="{46A64575-2175-8E47-82C9-3F050CF15467}"/>
+    <hyperlink ref="I85" r:id="rId113" xr:uid="{ED7FC3BF-3A28-384B-8550-F69424E7B859}"/>
+    <hyperlink ref="I86" r:id="rId114" xr:uid="{B515ADA6-C258-B24B-8A98-4AD4822CA98D}"/>
+    <hyperlink ref="I87" r:id="rId115" xr:uid="{5821E3FA-67A0-C34B-9F5A-CEB54C3DF1D9}"/>
+    <hyperlink ref="I93" r:id="rId116" xr:uid="{B80E4928-8128-8D4B-ABD8-9B336E1EEE10}"/>
+    <hyperlink ref="I94" r:id="rId117" xr:uid="{7AF25170-D1CA-D343-917C-90DBBF11722D}"/>
+    <hyperlink ref="I95" r:id="rId118" xr:uid="{149B5A2A-46E4-2C49-915F-7C0DF7F4E36D}"/>
+    <hyperlink ref="I96" r:id="rId119" xr:uid="{68FCD517-8351-B84F-B5D3-CA47501E8012}"/>
+    <hyperlink ref="I97" r:id="rId120" xr:uid="{69C9E654-7DF7-3E4B-9E7A-0F4120AD34DA}"/>
+    <hyperlink ref="I98" r:id="rId121" xr:uid="{556D71EF-EE4D-DF4D-BFBC-10943557A1EF}"/>
+    <hyperlink ref="I99" r:id="rId122" xr:uid="{65823319-CF6C-824C-8061-F3F0D597A501}"/>
+    <hyperlink ref="I100" r:id="rId123" xr:uid="{51CA8CC7-D013-F74B-B21B-B8007195280D}"/>
+    <hyperlink ref="I101" r:id="rId124" xr:uid="{77E1D6BD-3F6E-D041-B349-8219BDAEEA4F}"/>
+    <hyperlink ref="I102" r:id="rId125" xr:uid="{2628BAC3-73CC-EF4A-BCFB-6E8EF01F21A0}"/>
+    <hyperlink ref="I103" r:id="rId126" xr:uid="{288C4FFF-C703-344A-AE36-DEA6EC44BB44}"/>
+    <hyperlink ref="I107" r:id="rId127" xr:uid="{0E6BC44F-A542-0D43-9257-E3073071E239}"/>
+    <hyperlink ref="I109" r:id="rId128" xr:uid="{F3F714D7-C005-C745-8083-59228C298F62}"/>
+    <hyperlink ref="I110" r:id="rId129" xr:uid="{4E0EF668-1F34-3541-9A4F-F6FB3FD27B6F}"/>
+    <hyperlink ref="I111" r:id="rId130" xr:uid="{56111362-247E-2946-9975-49A1F30B71F9}"/>
+    <hyperlink ref="I112" r:id="rId131" xr:uid="{F15FD81B-05ED-6A4C-A8F8-42BF82BDC58F}"/>
+    <hyperlink ref="I114" r:id="rId132" xr:uid="{AFE6EC2C-BFD0-0643-978D-B394B2F18B27}"/>
+    <hyperlink ref="I115" r:id="rId133" xr:uid="{197CB6FA-60ED-D24E-8B13-F7232A499D72}"/>
+    <hyperlink ref="I116" r:id="rId134" xr:uid="{80A7411C-11DB-AC4A-91E3-DC99F4201FCD}"/>
+    <hyperlink ref="I117" r:id="rId135" xr:uid="{4750F82B-2734-0045-8546-8E76D13CB142}"/>
+    <hyperlink ref="I118" r:id="rId136" xr:uid="{2A360C97-476A-B24C-BDB4-75C069F3CF76}"/>
+    <hyperlink ref="I119" r:id="rId137" xr:uid="{720F9891-998E-3E4A-8B60-B75E3D45E75B}"/>
+    <hyperlink ref="I120" r:id="rId138" xr:uid="{9BAC7EB8-76B0-004D-A0D2-49BD6529B41A}"/>
+    <hyperlink ref="I121" r:id="rId139" xr:uid="{A63DE0E6-83A2-FC42-A7D2-EB0AE964FC29}"/>
+    <hyperlink ref="I122" r:id="rId140" xr:uid="{FE7BEBED-8C5C-D44A-AF31-2C6E0B954C68}"/>
+    <hyperlink ref="I123" r:id="rId141" xr:uid="{34AD8C57-8DED-004B-A12F-B578B503CAAB}"/>
+    <hyperlink ref="I124" r:id="rId142" xr:uid="{B6A8C396-94DA-2745-93FA-C7C950C6BC55}"/>
+    <hyperlink ref="I126" r:id="rId143" xr:uid="{FA6B7323-D505-A142-8327-03CA42E410DD}"/>
+    <hyperlink ref="I127" r:id="rId144" xr:uid="{EDB67610-7DB1-884D-8FC0-EBB8F3E9CFC4}"/>
+    <hyperlink ref="I25" r:id="rId145" xr:uid="{B6D27E56-59DA-4F48-AB34-A9317C57745A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="646">
   <si>
     <t xml:space="preserve">Categoría</t>
   </si>
@@ -1933,7 +1933,13 @@
     <t xml:space="preserve">Reciclaje de 3.2 toneladas de plastico,  en Santa Catarina,  Garza Sada y Plaza Real Saltillo a tráves de máquinas recicladoras.     Logrando una reducción de 56 toneladas de emisiones de CO2 en los últimos 12 meses. </t>
   </si>
   <si>
+    <t xml:space="preserve">relevantes/ambiental_botellas.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recaudación de Aprox.  11 toneladas de rapitas, que  equivalen a 19 toneladas de C02 que se dejaron de emitir al medio ambiente en los últimos 14 meses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevantes/ambiental_tapas.png</t>
   </si>
   <si>
     <t xml:space="preserve">En Paseo Santa Catarina, Mall Plaza Lincoln, Urban, Village Garza Sada Y Plaza Bella Anáhuac, se realizaron actividades de música y bailes realizados por personas de la 3era edad,  tramite de tarjetas INAPAM, conferencias, cursos y venta de productos artesanales.</t>
@@ -2099,44 +2105,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2144,15 +2154,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2160,7 +2170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,7 +2182,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2481,4835 +2491,4835 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="89.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="79.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="147.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="89.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="79.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="147.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="n">
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="n">
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="n">
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="n">
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="8" t="n">
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="8" t="n">
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="8" t="n">
+      <c r="G10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="8" t="n">
+      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="n">
+      <c r="G12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="8" t="n">
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="8" t="n">
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="8" t="n">
+      <c r="G16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="8" t="n">
+      <c r="G20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="8" t="n">
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="8" t="n">
+      <c r="G23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="9" t="n">
         <v>2021</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="8" t="n">
+      <c r="G26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="8" t="n">
+      <c r="G29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="9" t="n">
         <v>2020</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="8" t="n">
+      <c r="F36" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="F38" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="8" t="n">
+      <c r="F40" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="8" t="n">
+      <c r="F41" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="8" t="n">
+      <c r="F42" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="8" t="n">
+      <c r="F43" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="8" t="n">
+      <c r="F44" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="8" t="n">
+      <c r="F45" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="8" t="n">
+      <c r="F46" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="8" t="n">
+      <c r="F47" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="8" t="n">
+      <c r="F48" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="8" t="n">
+      <c r="F49" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="J49" s="0" t="s">
+      <c r="J49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F50" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="8" t="n">
+      <c r="F50" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="J50" s="0" t="s">
+      <c r="J50" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="8" t="n">
+      <c r="F51" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="8" t="n">
+      <c r="G51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="J51" s="0" t="s">
+      <c r="J51" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="8" t="n">
+      <c r="F52" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="J52" s="0" t="s">
+      <c r="J52" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D53" s="8" t="n">
+      <c r="D53" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="8" t="n">
+      <c r="F53" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="8" t="n">
+      <c r="G53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="J53" s="0" t="s">
+      <c r="J53" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="8" t="n">
+      <c r="D54" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="8" t="n">
+      <c r="F54" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="J54" s="0" t="s">
+      <c r="J54" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D55" s="8" t="n">
+      <c r="D55" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="8" t="n">
+      <c r="F55" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="8" t="n">
+      <c r="G55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="J55" s="0" t="s">
+      <c r="J55" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="8" t="n">
+      <c r="D56" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="8" t="n">
+      <c r="F56" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J56" s="0" t="s">
+      <c r="J56" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="8" t="n">
+      <c r="D57" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="8" t="n">
+      <c r="F57" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="J57" s="0" t="s">
+      <c r="J57" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="8" t="n">
+      <c r="D58" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="8" t="n">
+      <c r="F58" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="J58" s="0" t="s">
+      <c r="J58" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="8" t="n">
+      <c r="D59" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="8" t="n">
+      <c r="F59" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="J59" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="8" t="n">
+      <c r="F60" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="J60" s="0" t="s">
+      <c r="J60" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D61" s="8" t="n">
+      <c r="D61" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="8" t="n">
+      <c r="F61" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="8" t="n">
+      <c r="G61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="J61" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="8" t="n">
+      <c r="F62" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="8" t="n">
+      <c r="G62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="J62" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="8" t="n">
+      <c r="F63" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="8" t="n">
+      <c r="G63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="J63" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K63" s="12" t="s">
+      <c r="K63" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="8" t="n">
+      <c r="F64" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="8" t="n">
+      <c r="G64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="J64" s="0" t="s">
+      <c r="J64" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L64" s="0" t="s">
+      <c r="L64" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="8" t="n">
+      <c r="F65" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="J65" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L65" s="0" t="s">
+      <c r="L65" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I66" s="10" t="s">
+      <c r="F66" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="J66" s="0" t="s">
+      <c r="J66" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="L66" s="0" t="s">
+      <c r="L66" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="8" t="n">
+      <c r="F67" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="8" t="n">
+      <c r="G67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="J67" s="0" t="s">
+      <c r="J67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="L67" s="0" t="s">
+      <c r="L67" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F68" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="8" t="n">
+      <c r="F68" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="J68" s="0" t="s">
+      <c r="J68" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="L68" s="0" t="s">
+      <c r="L68" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="8" t="n">
+      <c r="D69" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="8" t="n">
+      <c r="F69" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="8" t="n">
+      <c r="G69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="J69" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="L69" s="0" t="s">
+      <c r="L69" s="1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="8" t="n">
+      <c r="D70" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F70" s="8" t="n">
+      <c r="F70" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="8" t="n">
+      <c r="G70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J70" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="L70" s="0" t="s">
+      <c r="L70" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D71" s="8" t="n">
+      <c r="D71" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F71" s="8" t="n">
+      <c r="F71" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="8" t="n">
+      <c r="G71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L71" s="0" t="s">
+      <c r="L71" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D72" s="8" t="n">
+      <c r="D72" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F72" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="8" t="n">
+      <c r="F72" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="J72" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="L72" s="0" t="s">
+      <c r="L72" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D73" s="8" t="n">
+      <c r="D73" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="8" t="n">
+      <c r="F73" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="J73" s="0" t="s">
+      <c r="J73" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="L73" s="0" t="s">
+      <c r="L73" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D74" s="8" t="n">
+      <c r="D74" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="8" t="n">
+      <c r="F74" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="L74" s="0" t="s">
+      <c r="L74" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D75" s="8" t="n">
+      <c r="D75" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="8" t="n">
+      <c r="F75" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="J75" s="0" t="s">
+      <c r="J75" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="L75" s="0" t="s">
+      <c r="L75" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D76" s="8" t="n">
+      <c r="D76" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F76" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="8" t="n">
+      <c r="F76" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="J76" s="0" t="s">
+      <c r="J76" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="L76" s="0" t="s">
+      <c r="L76" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D77" s="8" t="n">
+      <c r="D77" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="8" t="n">
+      <c r="F77" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="8" t="n">
+      <c r="G77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="J77" s="0" t="s">
+      <c r="J77" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L77" s="0" t="s">
+      <c r="L77" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D78" s="8" t="n">
+      <c r="D78" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F78" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="8" t="n">
+      <c r="F78" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="L78" s="0" t="s">
+      <c r="L78" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D79" s="8" t="n">
+      <c r="D79" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="8" t="n">
+      <c r="F79" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="J79" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="L79" s="0" t="s">
+      <c r="L79" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D80" s="8" t="n">
+      <c r="D80" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F80" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="8" t="n">
+      <c r="F80" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="J80" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L80" s="0" t="s">
+      <c r="L80" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D81" s="8" t="n">
+      <c r="D81" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="8" t="n">
+      <c r="F81" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="J81" s="0" t="s">
+      <c r="J81" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L81" s="0" t="s">
+      <c r="L81" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D82" s="8" t="n">
+      <c r="D82" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F82" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="8" t="n">
+      <c r="F82" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="J82" s="0" t="s">
+      <c r="J82" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L82" s="0" t="s">
+      <c r="L82" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D83" s="8" t="n">
+      <c r="D83" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="8" t="n">
+      <c r="F83" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="J83" s="0" t="s">
+      <c r="J83" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="L83" s="0" t="s">
+      <c r="L83" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D84" s="8" t="n">
+      <c r="D84" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F84" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="8" t="n">
+      <c r="F84" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="J84" s="0" t="s">
+      <c r="J84" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L84" s="0" t="s">
+      <c r="L84" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D85" s="8" t="n">
+      <c r="D85" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="8" t="n">
+      <c r="F85" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J85" s="0" t="s">
+      <c r="J85" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K85" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L85" s="0" t="s">
+      <c r="L85" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D86" s="8" t="n">
+      <c r="D86" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="8" t="n">
+      <c r="F86" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="J86" s="0" t="s">
+      <c r="J86" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="L86" s="0" t="s">
+      <c r="L86" s="1" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D87" s="8" t="n">
+      <c r="D87" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F87" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="8" t="n">
+      <c r="F87" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="J87" s="0" t="s">
+      <c r="J87" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K87" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="L87" s="0" t="s">
+      <c r="L87" s="1" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D88" s="8" t="n">
+      <c r="D88" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="8" t="n">
+      <c r="F88" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="J88" s="0" t="s">
+      <c r="J88" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K88" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="L88" s="0" t="s">
+      <c r="L88" s="1" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D89" s="8" t="n">
+      <c r="D89" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="8" t="n">
+      <c r="F89" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="J89" s="0" t="s">
+      <c r="J89" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="L89" s="0" t="s">
+      <c r="L89" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D90" s="8" t="n">
+      <c r="D90" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F90" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="8" t="n">
+      <c r="F90" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="J90" s="0" t="s">
+      <c r="J90" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="L90" s="0" t="s">
+      <c r="L90" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D91" s="8" t="n">
+      <c r="D91" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="8" t="n">
+      <c r="F91" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="J91" s="0" t="s">
+      <c r="J91" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="L91" s="0" t="s">
+      <c r="L91" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D92" s="8" t="n">
+      <c r="D92" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="8" t="n">
+      <c r="F92" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="J92" s="0" t="s">
+      <c r="J92" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="L92" s="0" t="s">
+      <c r="L92" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D93" s="8" t="n">
+      <c r="D93" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F93" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="8" t="n">
+      <c r="F93" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="J93" s="0" t="s">
+      <c r="J93" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K93" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="L93" s="0" t="s">
+      <c r="L93" s="1" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="A94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D94" s="8" t="n">
+      <c r="D94" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F94" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="8" t="n">
+      <c r="F94" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="J94" s="0" t="s">
+      <c r="J94" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L94" s="0" t="s">
+      <c r="L94" s="1" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="A95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D95" s="8" t="n">
+      <c r="D95" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="8" t="n">
+      <c r="F95" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="J95" s="0" t="s">
+      <c r="J95" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L95" s="0" t="s">
+      <c r="L95" s="1" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D96" s="8" t="n">
+      <c r="D96" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F96" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="8" t="n">
+      <c r="F96" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="J96" s="0" t="s">
+      <c r="J96" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L96" s="0" t="s">
+      <c r="L96" s="1" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D97" s="8" t="n">
+      <c r="D97" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F97" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="8" t="n">
+      <c r="F97" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="J97" s="0" t="s">
+      <c r="J97" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L97" s="0" t="s">
+      <c r="L97" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D98" s="8" t="n">
+      <c r="D98" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F98" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="8" t="n">
+      <c r="F98" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="J98" s="0" t="s">
+      <c r="J98" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K98" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="L98" s="0" t="s">
+      <c r="L98" s="1" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D99" s="8" t="n">
+      <c r="D99" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F99" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="8" t="n">
+      <c r="F99" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="J99" s="0" t="s">
+      <c r="J99" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="L99" s="0" t="s">
+      <c r="L99" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D100" s="8" t="n">
+      <c r="D100" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="8" t="n">
+      <c r="F100" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="8" t="n">
+      <c r="G100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="J100" s="0" t="s">
+      <c r="J100" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K100" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="L100" s="0" t="s">
+      <c r="L100" s="1" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D101" s="8" t="n">
+      <c r="D101" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F101" s="8" t="n">
+      <c r="F101" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="G101" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="8" t="n">
+      <c r="G101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="J101" s="0" t="s">
+      <c r="J101" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K101" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="L101" s="0" t="s">
+      <c r="L101" s="1" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D102" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" s="9" t="s">
+      <c r="D102" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="8" t="n">
+      <c r="F102" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="J102" s="0" t="s">
+      <c r="J102" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K102" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="L102" s="0" t="s">
+      <c r="L102" s="1" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D103" s="8" t="n">
+      <c r="D103" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F103" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="8" t="n">
+      <c r="F103" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="J103" s="0" t="s">
+      <c r="J103" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="K103" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="L103" s="0" t="s">
+      <c r="L103" s="1" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D104" s="8" t="n">
+      <c r="D104" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F104" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="8" t="n">
+      <c r="F104" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="J104" s="0" t="s">
+      <c r="J104" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K104" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="L104" s="0" t="s">
+      <c r="L104" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D105" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E105" s="9" t="s">
+      <c r="D105" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F105" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="8" t="n">
+      <c r="F105" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="J105" s="0" t="s">
+      <c r="J105" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="K105" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="L105" s="0" t="s">
+      <c r="L105" s="1" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="8" t="n">
+      <c r="D106" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F106" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="8" t="n">
+      <c r="F106" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="J106" s="0" t="s">
+      <c r="J106" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K106" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="L106" s="0" t="s">
+      <c r="L106" s="1" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D107" s="8" t="n">
+      <c r="D107" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F107" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="8" t="n">
+      <c r="F107" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="J107" s="0" t="s">
+      <c r="J107" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="K107" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L107" s="0" t="s">
+      <c r="L107" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="8" t="n">
+      <c r="D108" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F108" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="8" t="n">
+      <c r="F108" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="J108" s="0" t="s">
+      <c r="J108" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="K108" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="0" t="s">
+      <c r="L108" s="1" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D109" s="8" t="n">
+      <c r="D109" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F109" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="8" t="n">
+      <c r="F109" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="I109" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="K109" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="L109" s="0" t="s">
+      <c r="L109" s="1" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="8" t="n">
+      <c r="D110" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F110" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="8" t="n">
+      <c r="F110" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I110" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="K110" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="L110" s="0" t="s">
+      <c r="L110" s="1" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D111" s="8" t="n">
+      <c r="D111" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F111" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="8" t="n">
+      <c r="F111" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K111" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="L111" s="0" t="s">
+      <c r="L111" s="1" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="8" t="n">
+      <c r="D112" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F112" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="8" t="n">
+      <c r="F112" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="J112" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="K112" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L112" s="0" t="s">
+      <c r="L112" s="1" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="8" t="n">
+      <c r="D113" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F113" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="8" t="n">
+      <c r="F113" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="J113" s="0" t="s">
+      <c r="J113" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="K113" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="L113" s="0" t="s">
+      <c r="L113" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D114" s="8" t="n">
+      <c r="D114" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F114" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="8" t="n">
+      <c r="F114" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="J114" s="0" t="s">
+      <c r="J114" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="K114" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="L114" s="0" t="s">
+      <c r="L114" s="1" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D115" s="8" t="n">
+      <c r="D115" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F115" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="8" t="n">
+      <c r="F115" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="J115" s="0" t="s">
+      <c r="J115" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="K115" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="L115" s="0" t="s">
+      <c r="L115" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D116" s="8" t="n">
+      <c r="D116" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F116" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="8" t="n">
+      <c r="F116" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="J116" s="0" t="s">
+      <c r="J116" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="K116" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="L116" s="0" t="s">
+      <c r="L116" s="1" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D117" s="8" t="n">
+      <c r="D117" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F117" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="8" t="n">
+      <c r="F117" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="I117" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="J117" s="0" t="s">
+      <c r="J117" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="K117" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="L117" s="0" t="s">
+      <c r="L117" s="1" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D118" s="8" t="n">
+      <c r="D118" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F118" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="8" t="n">
+      <c r="F118" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I118" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="J118" s="0" t="s">
+      <c r="J118" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="K118" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="L118" s="0" t="s">
+      <c r="L118" s="1" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D119" s="8" t="n">
+      <c r="D119" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F119" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="8" t="n">
+      <c r="F119" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I119" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="J119" s="0" t="s">
+      <c r="J119" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="K119" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="L119" s="0" t="s">
+      <c r="L119" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="D120" s="8" t="n">
+      <c r="D120" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F120" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G120" s="8" t="s">
+      <c r="F120" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G120" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H120" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I120" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="J120" s="0" t="s">
+      <c r="J120" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="K120" s="1" t="s">
+      <c r="K120" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="L120" s="0" t="s">
+      <c r="L120" s="1" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="A121" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="D121" s="8" t="n">
+      <c r="D121" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F121" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="F121" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I121" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="J121" s="0" t="s">
+      <c r="J121" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="K121" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="L121" s="0" t="s">
+      <c r="L121" s="1" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="D122" s="8" t="n">
+      <c r="D122" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F122" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G122" s="8" t="s">
+      <c r="F122" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H122" s="14" t="s">
+      <c r="H122" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I122" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="J122" s="0" t="s">
+      <c r="J122" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="K122" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="L122" s="0" t="s">
+      <c r="L122" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="D123" s="8" t="n">
+      <c r="D123" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F123" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G123" s="8" t="s">
+      <c r="F123" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G123" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I123" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="J123" s="0" t="s">
+      <c r="J123" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="K123" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="L123" s="0" t="s">
+      <c r="L123" s="1" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="D124" s="8" t="n">
+      <c r="D124" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F124" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="8" t="n">
+      <c r="F124" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I124" s="10" t="s">
+      <c r="I124" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="J124" s="0" t="s">
+      <c r="J124" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="K124" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="L124" s="0" t="s">
+      <c r="L124" s="1" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D125" s="8" t="n">
+      <c r="D125" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F125" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="8" t="n">
+      <c r="F125" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I125" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="J125" s="0" t="s">
+      <c r="J125" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="K125" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="L125" s="0" t="s">
+      <c r="L125" s="1" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="8" t="n">
+      <c r="D126" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F126" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="8" t="n">
+      <c r="F126" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I126" s="10" t="s">
+      <c r="I126" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J126" s="0" t="s">
+      <c r="J126" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="K126" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="L126" s="0" t="s">
+      <c r="L126" s="1" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D127" s="8" t="n">
+      <c r="D127" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F127" s="8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="8" t="n">
+      <c r="F127" s="9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I127" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="J127" s="0" t="s">
+      <c r="J127" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="K127" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="L127" s="0" t="s">
+      <c r="L127" s="1" t="s">
         <v>631</v>
       </c>
     </row>
@@ -7492,32 +7502,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -7538,54 +7554,54 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="229.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="229.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>637</v>
+      <c r="A2" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>639</v>
+      <c r="A3" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>641</v>
+      <c r="A4" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>643</v>
+      <c r="A5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -7612,14 +7628,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>633</v>
       </c>
     </row>

--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de actividades" sheetId="1" state="visible" r:id="rId3"/>
@@ -2105,7 +2105,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2183,6 +2183,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2483,10 +2487,10 @@
   </sheetPr>
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H83" activeCellId="0" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3242,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>113</v>
@@ -5598,7 +5602,7 @@
         <v>14</v>
       </c>
       <c r="H82" s="9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>409</v>
@@ -6100,7 +6104,7 @@
       <c r="J95" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="20" t="s">
         <v>473</v>
       </c>
       <c r="L95" s="1" t="s">
@@ -7502,7 +7506,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/data/asg/actividades-final.xlsx
+++ b/data/asg/actividades-final.xlsx
@@ -259,7 +259,7 @@
     <t xml:space="preserve">En lo que va del 2021, se juntaron 30,155 kg lo que equivale a 964,960 botellas de plástico recicladas y 52,470 kg y en 2022, un total de 4,346 kg lo que equivale a 139,072 botellas de plástico recicladas y 7,562 kg.</t>
   </si>
   <si>
-    <t xml:space="preserve">se juntaron 30,155 kg lo que equivale a 964,960 botellas de plástico recicladas y 52,470 kg y en 2022, un total de 4,346 kg lo que equivale a 139,072 botellas de plástico.</t>
+    <t xml:space="preserve">Se juntaron 30,155 kg lo que equivale a 964,960 botellas de plástico recicladas y 52,470 kg y en 2022, un total de 4,346 kg lo que equivale a 139,072 botellas de plástico.</t>
   </si>
   <si>
     <t xml:space="preserve">Teletón Coahuila</t>
@@ -868,7 +868,7 @@
     <t xml:space="preserve">https://planigrupo.com.mx/wp-content/uploads/2019/10/Imagen61.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> Se instaló un centro de acopio para recolectar víveres a los damnificados de forma permanente, después del sismo del 2016 y las inundaciones en Nayarit en el 2018.</t>
+    <t xml:space="preserve">Se instaló un centro de acopio para recolectar víveres a los damnificados de forma permanente, después del sismo del 2016 y las inundaciones en Nayarit en el 2018.</t>
   </si>
   <si>
     <t xml:space="preserve"> Se instaló un centro de acopio para recolectar víveres a los damnificados de forma permanente, después del sismo del 2016.</t>
@@ -2487,10 +2487,10 @@
   </sheetPr>
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H83" activeCellId="0" sqref="H83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2767,7 +2767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -7506,7 +7506,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7558,7 +7558,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -7626,7 +7626,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
